--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -1,325 +1,469 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhXjWuQxopUDG9UUJvE/ooZgUVWQw=="/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
-  <si>
-    <t>usuario_id</t>
-  </si>
-  <si>
-    <t>usuario</t>
-  </si>
-  <si>
-    <t>idade</t>
-  </si>
-  <si>
-    <t>historico_de_reproducoes</t>
-  </si>
-  <si>
-    <t>data_reproducao</t>
-  </si>
-  <si>
-    <t>plano</t>
-  </si>
-  <si>
-    <t>data_assinatura</t>
-  </si>
-  <si>
-    <t>valor_plano</t>
-  </si>
-  <si>
-    <t>seguindo_artistas</t>
-  </si>
-  <si>
-    <t>Barbara Liskov</t>
-  </si>
-  <si>
-    <t>"Samba em Paris"; "VIRGO’S GROOVE"; "Feeling Good"</t>
-  </si>
-  <si>
-    <t>"2022-02-28 10:45:55"; "2020-05-02 05:30:35"; "2020-03-06 11:22:33"</t>
-  </si>
-  <si>
-    <t>gratuito</t>
-  </si>
-  <si>
-    <t>2019-10-20</t>
-  </si>
-  <si>
-    <t>Beyoncé; Queen; Elis Regina</t>
-  </si>
-  <si>
-    <t>Robert Cecil Martin</t>
-  </si>
-  <si>
-    <t>"Feeling Good"; "O Medo de Amar é o Medo de Ser Livre"</t>
-  </si>
-  <si>
-    <t>"2022-08-05 08:05:17"; "2020-01-02 07:40:33"</t>
-  </si>
-  <si>
-    <t>2017-01-06</t>
-  </si>
-  <si>
-    <t>Beyoncé; Elis Regina</t>
-  </si>
-  <si>
-    <t>Ada Lovelace</t>
-  </si>
-  <si>
-    <t>"Feeling Good"; "VIRGO’S GROOVE"</t>
-  </si>
-  <si>
-    <t>"2020-11-13 16:55:13"; "2020-12-05 18:38:30"</t>
-  </si>
-  <si>
-    <t>familiar</t>
-  </si>
-  <si>
-    <t>2017-12-30</t>
-  </si>
-  <si>
-    <t>Queen</t>
-  </si>
-  <si>
-    <t>Martin Fowler</t>
-  </si>
-  <si>
-    <t>"Samba em Paris"</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="124">
+  <si>
+    <t xml:space="preserve">usuario_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historico_de_reproducoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_reproducao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_assinatura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor_plano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seguindo_artistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbara Liskov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Samba em Paris"; "VIRGO’S GROOVE"; "Feeling Good"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2022-02-28 10:45:55"; "2020-05-02 05:30:35"; "2020-03-06 11:22:33"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gratuito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyoncé; Queen; Elis Regina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Cecil Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Feeling Good"; "O Medo de Amar é o Medo de Ser Livre"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2022-08-05 08:05:17"; "2020-01-02 07:40:33"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyoncé; Elis Regina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ada Lovelace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Feeling Good"; "VIRGO’S GROOVE"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2020-11-13 16:55:13"; "2020-12-05 18:38:30"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Fowler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Samba em Paris"</t>
   </si>
   <si>
     <t xml:space="preserve">"2021-08-15 17:10:10"; </t>
   </si>
   <si>
-    <t>2017-01-17</t>
-  </si>
-  <si>
-    <t>Baco Exu do Blues</t>
-  </si>
-  <si>
-    <t>Sandi Metz</t>
-  </si>
-  <si>
-    <t>"Samba em Paris"; "Under Pressure"</t>
-  </si>
-  <si>
-    <t>"2022-01-09 01:44:33"; "2020-08-06 15:23:43"</t>
-  </si>
-  <si>
-    <t>2018-04-29</t>
-  </si>
-  <si>
-    <t>Blind Guardian; Nina Simone</t>
-  </si>
-  <si>
-    <t>Paulo Freire</t>
-  </si>
-  <si>
-    <t>"O Medo de Amar é o Medo de Ser Livre"; "BREAK MY SOUL"</t>
-  </si>
-  <si>
-    <t>"2017-01-24 00:31:17"; "2017-10-12 12:35:20"</t>
-  </si>
-  <si>
-    <t>universitário</t>
-  </si>
-  <si>
-    <t>2018-02-14</t>
+    <t xml:space="preserve">2017-01-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baco Exu do Blues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandi Metz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Samba em Paris"; "Under Pressure"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2022-01-09 01:44:33"; "2020-08-06 15:23:43"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blind Guardian; Nina Simone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulo Freire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"O Medo de Amar é o Medo de Ser Livre"; "BREAK MY SOUL"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2017-01-24 00:31:17"; "2017-10-12 12:35:20"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">universitário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-14</t>
   </si>
   <si>
     <t xml:space="preserve">Nina Simone; Beyoncé
 </t>
   </si>
   <si>
-    <t>Bell Hooks</t>
-  </si>
-  <si>
-    <t>"Don’t Stop Me Now"</t>
-  </si>
-  <si>
-    <t>"2011-12-15 22:30:49"</t>
-  </si>
-  <si>
-    <t>2018-01-05</t>
-  </si>
-  <si>
-    <t>Nina Simone</t>
-  </si>
-  <si>
-    <t>Christopher Alexander</t>
-  </si>
-  <si>
-    <t>"2012-03-17 14:56:41"</t>
-  </si>
-  <si>
-    <t>pessoal</t>
-  </si>
-  <si>
-    <t>2019-06-05</t>
-  </si>
-  <si>
-    <t>Judith Butler</t>
-  </si>
-  <si>
-    <t>"The Bard’s Song"</t>
-  </si>
-  <si>
-    <t>"2022-02-24 21:14:22"</t>
-  </si>
-  <si>
-    <t>2020-05-13</t>
-  </si>
-  <si>
-    <t>Elis Regina</t>
-  </si>
-  <si>
-    <t>Jorge Amado</t>
-  </si>
-  <si>
-    <t>"ALIEN SUPERSTAR"</t>
-  </si>
-  <si>
-    <t>"2015-12-13 08:30:22"</t>
-  </si>
-  <si>
-    <t>2017-02-17</t>
+    <t xml:space="preserve">Bell Hooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Don’t Stop Me Now"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2011-12-15 22:30:49"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nina Simone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christopher Alexander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2012-03-17 14:56:41"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pessoal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-06-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judith Butler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"The Bard’s Song"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2022-02-24 21:14:22"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elis Regina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Amado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ALIEN SUPERSTAR"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2015-12-13 08:30:22"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-17</t>
   </si>
   <si>
     <t xml:space="preserve">Queen
 </t>
   </si>
   <si>
-    <t>album_id</t>
-  </si>
-  <si>
-    <t>album</t>
-  </si>
-  <si>
-    <t>artista</t>
-  </si>
-  <si>
-    <t>cancoes</t>
-  </si>
-  <si>
-    <t>duracao_segundos</t>
-  </si>
-  <si>
-    <t>ano_lancamento</t>
-  </si>
-  <si>
-    <t>Renaissance</t>
-  </si>
-  <si>
-    <t>Beyoncé</t>
-  </si>
-  <si>
-    <t>"BREAK MY SOUL"; "VIRGO’S GROOVE"; "ALIEN SUPERSTAR"</t>
-  </si>
-  <si>
-    <t>279; 369; 116</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>Jazz</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>Hot Space</t>
-  </si>
-  <si>
-    <t>"Under Pressure"</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>Falso Brilhante</t>
-  </si>
-  <si>
-    <t>"Como Nossos Pais"</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>Vento de Maio</t>
-  </si>
-  <si>
-    <t>"O Medo de Amar é o Medo de Ser Livre"</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>QVVJFA?</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>Somewhere Far Beyond</t>
-  </si>
-  <si>
-    <t>Blind Guardian</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>I Put A Spell On You</t>
-  </si>
-  <si>
-    <t>"Feeling Good"</t>
-  </si>
-  <si>
-    <t>2012</t>
+    <t xml:space="preserve">album_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">album</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cancoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duracao_segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ano_lancamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renaissance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyoncé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"BREAK MY SOUL"; "VIRGO’S GROOVE"; "ALIEN SUPERSTAR"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">279; 369; 116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Under Pressure"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falso Brilhante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Como Nossos Pais"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vento de Maio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"O Medo de Amar é o Medo de Ser Livre"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QVVJFA?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhere Far Beyond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blind Guardian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Put A Spell On You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Feeling Good"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artista_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nome_artista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nome_usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plano_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nome_plano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">álbuns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nome_album</t>
+  </si>
+  <si>
+    <t xml:space="preserve">musicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">musica_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nome_musica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"BREAK MY SOUL"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"VIRGO’S GROOVE" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">historico_reproducao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artistas_seguidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2022-02-28 10:45:55"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2020-05-02 05:30:35"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2020-03-06 11:22:33"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2022-08-05 08:05:17"; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2020-01-02 07:40:33"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2020-11-13 16:55:13"; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2020-12-05 18:38:30"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2022-01-09 01:44:33"; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2020-08-06 15:23:43"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2017-01-24 00:31:17"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“2017-10-12 12:35:20"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00"/>
+  </numFmts>
+  <fonts count="9">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF81D41A"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF81D41A"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF81D41A"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF81D41A"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -327,419 +471,404 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="43">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="0000FF"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:AMJ221"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E60" activeCellId="0" sqref="E60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.57"/>
-    <col customWidth="1" min="2" max="2" width="18.29"/>
-    <col customWidth="1" min="3" max="3" width="16.57"/>
-    <col customWidth="1" min="4" max="4" width="52.86"/>
-    <col customWidth="1" min="5" max="5" width="46.14"/>
-    <col customWidth="1" min="6" max="6" width="18.14"/>
-    <col customWidth="1" min="7" max="7" width="16.29"/>
-    <col customWidth="1" min="8" max="8" width="13.71"/>
-    <col customWidth="1" min="9" max="9" width="10.57"/>
-    <col customWidth="1" min="10" max="10" width="25.71"/>
-    <col customWidth="1" min="11" max="25" width="8.86"/>
-    <col customWidth="1" min="26" max="27" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="32.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="44.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="25.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="11" style="1" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="26" style="1" width="14.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="28" style="1" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.0" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-    </row>
-    <row r="2" ht="18.0" customHeight="1">
-      <c r="A2" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9">
-        <v>82.0</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="10" t="n">
+        <v>82</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I2" s="14">
-        <v>1.0</v>
+      <c r="H2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10" t="n">
+        <v>1</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="K2" s="8"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
@@ -757,38 +886,38 @@
       <c r="Z2" s="15"/>
       <c r="AA2" s="15"/>
     </row>
-    <row r="3" ht="18.0" customHeight="1">
-      <c r="A3" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    <row r="3" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="9">
-        <v>58.0</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="I3" s="14">
-        <v>2.0</v>
+      <c r="H3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10" t="n">
+        <v>2</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="8"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
@@ -806,38 +935,38 @@
       <c r="Z3" s="15"/>
       <c r="AA3" s="15"/>
     </row>
-    <row r="4" ht="18.0" customHeight="1">
-      <c r="A4" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9">
-        <v>37.0</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="14" t="n">
         <v>7.99</v>
       </c>
-      <c r="I4" s="14">
-        <v>3.0</v>
+      <c r="I4" s="10" t="n">
+        <v>3</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="8"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
@@ -855,38 +984,38 @@
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
     </row>
-    <row r="5" ht="18.0" customHeight="1">
-      <c r="A5" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="10" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="9">
-        <v>46.0</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="10" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="14" t="n">
         <v>7.99</v>
       </c>
-      <c r="I5" s="14">
-        <v>4.0</v>
+      <c r="I5" s="10" t="n">
+        <v>4</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="8"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
@@ -904,38 +1033,38 @@
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
     </row>
-    <row r="6" ht="18.0" customHeight="1">
-      <c r="A6" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="10" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="9">
-        <v>58.0</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="14" t="n">
         <v>7.99</v>
       </c>
-      <c r="I6" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="J6" s="10" t="s">
+      <c r="I6" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="8"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
@@ -953,38 +1082,38 @@
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
     </row>
-    <row r="7" ht="18.0" customHeight="1">
-      <c r="A7" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="10" t="s">
+    <row r="7" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="9">
-        <v>19.0</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="14" t="n">
         <v>5.99</v>
       </c>
-      <c r="I7" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
@@ -1002,38 +1131,38 @@
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
     </row>
-    <row r="8" ht="18.0" customHeight="1">
-      <c r="A8" s="9">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="10" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="9">
-        <v>26.0</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="10" t="n">
+        <v>26</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="13" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="14" t="n">
         <v>5.99</v>
       </c>
-      <c r="I8" s="14">
-        <v>7.0</v>
+      <c r="I8" s="10" t="n">
+        <v>7</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="8"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
@@ -1051,36 +1180,36 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
     </row>
-    <row r="9" ht="18.0" customHeight="1">
-      <c r="A9" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="9">
-        <v>85.0</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="10" t="n">
+        <v>85</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="13" t="s">
         <v>49</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="14" t="n">
         <v>6.99</v>
       </c>
-      <c r="I9" s="14">
-        <v>8.0</v>
+      <c r="I9" s="10" t="n">
+        <v>8</v>
       </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="7"/>
+      <c r="K9" s="8"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
@@ -1098,38 +1227,38 @@
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
     </row>
-    <row r="10" ht="18.0" customHeight="1">
-      <c r="A10" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="10" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="9">
-        <v>45.0</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="10" t="n">
+        <v>45</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="13" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="14" t="n">
         <v>6.99</v>
       </c>
-      <c r="I10" s="14">
-        <v>9.0</v>
+      <c r="I10" s="10" t="n">
+        <v>9</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
@@ -1147,38 +1276,38 @@
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
     </row>
-    <row r="11" ht="18.0" customHeight="1">
-      <c r="A11" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="10" t="s">
+    <row r="11" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="9">
-        <v>58.0</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="13" t="s">
         <v>49</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="14" t="n">
         <v>6.99</v>
       </c>
-      <c r="I11" s="14">
-        <v>10.0</v>
-      </c>
-      <c r="J11" s="11" t="s">
+      <c r="I11" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="8"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
@@ -1196,14 +1325,14 @@
       <c r="Z11" s="15"/>
       <c r="AA11" s="15"/>
     </row>
-    <row r="12" ht="17.25" customHeight="1">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17"/>
       <c r="B12" s="15"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="19"/>
-      <c r="G12" s="18"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="20"/>
       <c r="I12" s="17"/>
       <c r="J12" s="15"/>
@@ -1222,64 +1351,64 @@
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-    </row>
-    <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="1" t="s">
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-    </row>
-    <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="11" t="s">
         <v>70</v>
       </c>
       <c r="F14" s="11" t="s">
@@ -1287,7 +1416,7 @@
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="24"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
@@ -1299,36 +1428,36 @@
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
       <c r="T14" s="15"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-    </row>
-    <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="9">
-        <v>203.0</v>
+      <c r="E15" s="10" t="n">
+        <v>203</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>73</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="24"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
@@ -1340,36 +1469,36 @@
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-    </row>
-    <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="9">
-        <v>152.0</v>
+      <c r="E16" s="10" t="n">
+        <v>152</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>76</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="20"/>
-      <c r="I16" s="24"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
@@ -1381,36 +1510,36 @@
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-    </row>
-    <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="9">
-        <v>105.0</v>
+      <c r="E17" s="10" t="n">
+        <v>105</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>79</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="24"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
@@ -1422,36 +1551,36 @@
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-    </row>
-    <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="9">
-        <v>207.0</v>
+      <c r="E18" s="10" t="n">
+        <v>207</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>82</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="24"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
@@ -1463,36 +1592,36 @@
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
       <c r="T18" s="15"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-    </row>
-    <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="9">
-        <v>267.0</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="10" t="n">
+        <v>267</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="20"/>
-      <c r="I19" s="24"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
@@ -1504,36 +1633,36 @@
       <c r="R19" s="15"/>
       <c r="S19" s="15"/>
       <c r="T19" s="15"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-    </row>
-    <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="9">
-        <v>7.0</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="9">
-        <v>244.0</v>
-      </c>
-      <c r="F20" s="10" t="s">
+      <c r="E20" s="10" t="n">
+        <v>244</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="24"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
@@ -1545,36 +1674,36 @@
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
       <c r="T20" s="15"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-    </row>
-    <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="B21" s="10" t="s">
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="9">
-        <v>100.0</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>90</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="24"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -1586,25 +1715,25 @@
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17"/>
       <c r="B22" s="15"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="15"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="25"/>
+      <c r="F22" s="19"/>
       <c r="G22" s="15"/>
       <c r="H22" s="20"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="7"/>
+      <c r="J22" s="8"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
@@ -1620,16 +1749,13 @@
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
       <c r="Y22" s="15"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="15"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="18"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="25"/>
+      <c r="F23" s="19"/>
       <c r="G23" s="15"/>
       <c r="H23" s="20"/>
       <c r="I23" s="17"/>
@@ -1649,16 +1775,17 @@
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="15"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="15"/>
-      <c r="F24" s="25"/>
+      <c r="F24" s="19"/>
       <c r="G24" s="15"/>
       <c r="H24" s="20"/>
       <c r="I24" s="17"/>
@@ -1678,16 +1805,20 @@
       <c r="W24" s="15"/>
       <c r="X24" s="15"/>
       <c r="Y24" s="15"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="15"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>93</v>
+      </c>
       <c r="C25" s="17"/>
-      <c r="D25" s="15"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="25"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="15"/>
       <c r="H25" s="20"/>
       <c r="I25" s="17"/>
@@ -1707,16 +1838,20 @@
       <c r="W25" s="15"/>
       <c r="X25" s="15"/>
       <c r="Y25" s="15"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="15"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="C26" s="17"/>
-      <c r="D26" s="15"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="25"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="15"/>
       <c r="H26" s="20"/>
       <c r="I26" s="17"/>
@@ -1736,16 +1871,20 @@
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
       <c r="Y26" s="15"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="15"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>25</v>
+      </c>
       <c r="C27" s="17"/>
-      <c r="D27" s="15"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="15"/>
-      <c r="F27" s="25"/>
+      <c r="F27" s="19"/>
       <c r="G27" s="15"/>
       <c r="H27" s="20"/>
       <c r="I27" s="17"/>
@@ -1765,16 +1904,20 @@
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
       <c r="Y27" s="15"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="15"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="C28" s="17"/>
-      <c r="D28" s="15"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="25"/>
+      <c r="F28" s="19"/>
       <c r="G28" s="15"/>
       <c r="H28" s="20"/>
       <c r="I28" s="17"/>
@@ -1794,16 +1937,20 @@
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
       <c r="Y28" s="15"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="15"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="C29" s="17"/>
-      <c r="D29" s="15"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="15"/>
-      <c r="F29" s="25"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="15"/>
       <c r="H29" s="20"/>
       <c r="I29" s="17"/>
@@ -1823,16 +1970,20 @@
       <c r="W29" s="15"/>
       <c r="X29" s="15"/>
       <c r="Y29" s="15"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="15"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>86</v>
+      </c>
       <c r="C30" s="17"/>
-      <c r="D30" s="15"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="15"/>
-      <c r="F30" s="25"/>
+      <c r="F30" s="19"/>
       <c r="G30" s="15"/>
       <c r="H30" s="20"/>
       <c r="I30" s="17"/>
@@ -1852,16 +2003,20 @@
       <c r="W30" s="15"/>
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="15"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="C31" s="17"/>
-      <c r="D31" s="15"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="15"/>
-      <c r="F31" s="25"/>
+      <c r="F31" s="19"/>
       <c r="G31" s="15"/>
       <c r="H31" s="20"/>
       <c r="I31" s="17"/>
@@ -1881,18 +2036,20 @@
       <c r="W31" s="15"/>
       <c r="X31" s="15"/>
       <c r="Y31" s="15"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="17"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="20"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
       <c r="I32" s="17"/>
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
@@ -1910,18 +2067,28 @@
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
       <c r="Y32" s="15"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="17"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="20"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
       <c r="I33" s="17"/>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
@@ -1939,18 +2106,28 @@
       <c r="W33" s="15"/>
       <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="17"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="20"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="26" t="n">
+        <v>82</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
       <c r="I34" s="17"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
@@ -1968,18 +2145,28 @@
       <c r="W34" s="15"/>
       <c r="X34" s="15"/>
       <c r="Y34" s="15"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="7"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="17"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="20"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="26" t="n">
+        <v>58</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
       <c r="I35" s="17"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
@@ -1997,18 +2184,28 @@
       <c r="W35" s="15"/>
       <c r="X35" s="15"/>
       <c r="Y35" s="15"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="17"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="20"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="26" t="n">
+        <v>37</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
       <c r="I36" s="17"/>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
@@ -2026,18 +2223,28 @@
       <c r="W36" s="15"/>
       <c r="X36" s="15"/>
       <c r="Y36" s="15"/>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="7"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="17"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="20"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="26" t="n">
+        <v>46</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
       <c r="I37" s="17"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
@@ -2055,16 +2262,26 @@
       <c r="W37" s="15"/>
       <c r="X37" s="15"/>
       <c r="Y37" s="15"/>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="17"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="25"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="26" t="n">
+        <v>58</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="0"/>
       <c r="G38" s="15"/>
       <c r="H38" s="20"/>
       <c r="I38" s="17"/>
@@ -2084,16 +2301,26 @@
       <c r="W38" s="15"/>
       <c r="X38" s="15"/>
       <c r="Y38" s="15"/>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="7"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="17"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="25"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="26" t="n">
+        <v>19</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="0"/>
       <c r="G39" s="15"/>
       <c r="H39" s="20"/>
       <c r="I39" s="17"/>
@@ -2113,16 +2340,26 @@
       <c r="W39" s="15"/>
       <c r="X39" s="15"/>
       <c r="Y39" s="15"/>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="7"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="17"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="25"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="26" t="n">
+        <v>26</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="0"/>
       <c r="G40" s="15"/>
       <c r="H40" s="20"/>
       <c r="I40" s="17"/>
@@ -2142,16 +2379,26 @@
       <c r="W40" s="15"/>
       <c r="X40" s="15"/>
       <c r="Y40" s="15"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="7"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="17"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="25"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="26" t="n">
+        <v>85</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="0"/>
       <c r="G41" s="15"/>
       <c r="H41" s="20"/>
       <c r="I41" s="17"/>
@@ -2171,16 +2418,26 @@
       <c r="W41" s="15"/>
       <c r="X41" s="15"/>
       <c r="Y41" s="15"/>
-      <c r="Z41" s="7"/>
-      <c r="AA41" s="7"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="17"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="25"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="26" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="26" t="n">
+        <v>45</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="0"/>
       <c r="G42" s="15"/>
       <c r="H42" s="20"/>
       <c r="I42" s="17"/>
@@ -2200,16 +2457,26 @@
       <c r="W42" s="15"/>
       <c r="X42" s="15"/>
       <c r="Y42" s="15"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="7"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="17"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="25"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="26" t="n">
+        <v>58</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="0"/>
       <c r="G43" s="15"/>
       <c r="H43" s="20"/>
       <c r="I43" s="17"/>
@@ -2229,16 +2496,16 @@
       <c r="W43" s="15"/>
       <c r="X43" s="15"/>
       <c r="Y43" s="15"/>
-      <c r="Z43" s="7"/>
-      <c r="AA43" s="7"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="17"/>
       <c r="B44" s="15"/>
       <c r="C44" s="17"/>
-      <c r="D44" s="15"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="15"/>
-      <c r="F44" s="25"/>
+      <c r="F44" s="19"/>
       <c r="G44" s="15"/>
       <c r="H44" s="20"/>
       <c r="I44" s="17"/>
@@ -2258,16 +2525,18 @@
       <c r="W44" s="15"/>
       <c r="X44" s="15"/>
       <c r="Y44" s="15"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="7"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="17"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="15"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="15"/>
-      <c r="F45" s="25"/>
+      <c r="F45" s="19"/>
       <c r="G45" s="15"/>
       <c r="H45" s="20"/>
       <c r="I45" s="17"/>
@@ -2287,16 +2556,22 @@
       <c r="W45" s="15"/>
       <c r="X45" s="15"/>
       <c r="Y45" s="15"/>
-      <c r="Z45" s="7"/>
-      <c r="AA45" s="7"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="17"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="15"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="18"/>
       <c r="E46" s="15"/>
-      <c r="F46" s="25"/>
+      <c r="F46" s="19"/>
       <c r="G46" s="15"/>
       <c r="H46" s="20"/>
       <c r="I46" s="17"/>
@@ -2316,16 +2591,22 @@
       <c r="W46" s="15"/>
       <c r="X46" s="15"/>
       <c r="Y46" s="15"/>
-      <c r="Z46" s="7"/>
-      <c r="AA46" s="7"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="17"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="15"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="18"/>
       <c r="E47" s="15"/>
-      <c r="F47" s="25"/>
+      <c r="F47" s="19"/>
       <c r="G47" s="15"/>
       <c r="H47" s="20"/>
       <c r="I47" s="17"/>
@@ -2345,16 +2626,22 @@
       <c r="W47" s="15"/>
       <c r="X47" s="15"/>
       <c r="Y47" s="15"/>
-      <c r="Z47" s="7"/>
-      <c r="AA47" s="7"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="17"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="15"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="34" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D48" s="18"/>
       <c r="E48" s="15"/>
-      <c r="F48" s="25"/>
+      <c r="F48" s="19"/>
       <c r="G48" s="15"/>
       <c r="H48" s="20"/>
       <c r="I48" s="17"/>
@@ -2374,16 +2661,22 @@
       <c r="W48" s="15"/>
       <c r="X48" s="15"/>
       <c r="Y48" s="15"/>
-      <c r="Z48" s="7"/>
-      <c r="AA48" s="7"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="17"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="15"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="34" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="D49" s="18"/>
       <c r="E49" s="15"/>
-      <c r="F49" s="25"/>
+      <c r="F49" s="19"/>
       <c r="G49" s="15"/>
       <c r="H49" s="20"/>
       <c r="I49" s="17"/>
@@ -2403,16 +2696,22 @@
       <c r="W49" s="15"/>
       <c r="X49" s="15"/>
       <c r="Y49" s="15"/>
-      <c r="Z49" s="7"/>
-      <c r="AA49" s="7"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="17"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="15"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="34" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="D50" s="18"/>
       <c r="E50" s="15"/>
-      <c r="F50" s="25"/>
+      <c r="F50" s="19"/>
       <c r="G50" s="15"/>
       <c r="H50" s="20"/>
       <c r="I50" s="17"/>
@@ -2432,16 +2731,16 @@
       <c r="W50" s="15"/>
       <c r="X50" s="15"/>
       <c r="Y50" s="15"/>
-      <c r="Z50" s="7"/>
-      <c r="AA50" s="7"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="17"/>
       <c r="B51" s="15"/>
       <c r="C51" s="17"/>
-      <c r="D51" s="15"/>
+      <c r="D51" s="18"/>
       <c r="E51" s="15"/>
-      <c r="F51" s="25"/>
+      <c r="F51" s="19"/>
       <c r="G51" s="15"/>
       <c r="H51" s="20"/>
       <c r="I51" s="17"/>
@@ -2461,16 +2760,18 @@
       <c r="W51" s="15"/>
       <c r="X51" s="15"/>
       <c r="Y51" s="15"/>
-      <c r="Z51" s="7"/>
-      <c r="AA51" s="7"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="17"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="15"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
       <c r="E52" s="15"/>
-      <c r="F52" s="25"/>
+      <c r="F52" s="19"/>
       <c r="G52" s="15"/>
       <c r="H52" s="20"/>
       <c r="I52" s="17"/>
@@ -2490,19 +2791,27 @@
       <c r="W52" s="15"/>
       <c r="X52" s="15"/>
       <c r="Y52" s="15"/>
-      <c r="Z52" s="7"/>
-      <c r="AA52" s="7"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="17"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="17"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="0"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="15"/>
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
       <c r="L53" s="15"/>
@@ -2518,20 +2827,28 @@
       <c r="V53" s="15"/>
       <c r="W53" s="15"/>
       <c r="X53" s="15"/>
-      <c r="Y53" s="15"/>
-      <c r="Z53" s="7"/>
-      <c r="AA53" s="7"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="17"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="17"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AMJ53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="0"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="15"/>
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
@@ -2547,20 +2864,28 @@
       <c r="V54" s="15"/>
       <c r="W54" s="15"/>
       <c r="X54" s="15"/>
-      <c r="Y54" s="15"/>
-      <c r="Z54" s="7"/>
-      <c r="AA54" s="7"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="17"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="17"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AMJ54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="0"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="15"/>
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
       <c r="L55" s="15"/>
@@ -2576,20 +2901,28 @@
       <c r="V55" s="15"/>
       <c r="W55" s="15"/>
       <c r="X55" s="15"/>
-      <c r="Y55" s="15"/>
-      <c r="Z55" s="7"/>
-      <c r="AA55" s="7"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="17"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="17"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AMJ55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="0"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="15"/>
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
@@ -2605,20 +2938,28 @@
       <c r="V56" s="15"/>
       <c r="W56" s="15"/>
       <c r="X56" s="15"/>
-      <c r="Y56" s="15"/>
-      <c r="Z56" s="7"/>
-      <c r="AA56" s="7"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="17"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="17"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AMJ56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="0"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="15"/>
       <c r="J57" s="15"/>
       <c r="K57" s="15"/>
       <c r="L57" s="15"/>
@@ -2634,20 +2975,28 @@
       <c r="V57" s="15"/>
       <c r="W57" s="15"/>
       <c r="X57" s="15"/>
-      <c r="Y57" s="15"/>
-      <c r="Z57" s="7"/>
-      <c r="AA57" s="7"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="17"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="17"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AMJ57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="0"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="15"/>
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
@@ -2663,20 +3012,28 @@
       <c r="V58" s="15"/>
       <c r="W58" s="15"/>
       <c r="X58" s="15"/>
-      <c r="Y58" s="15"/>
-      <c r="Z58" s="7"/>
-      <c r="AA58" s="7"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="17"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="17"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AMJ58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="0"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="15"/>
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
@@ -2692,20 +3049,28 @@
       <c r="V59" s="15"/>
       <c r="W59" s="15"/>
       <c r="X59" s="15"/>
-      <c r="Y59" s="15"/>
-      <c r="Z59" s="7"/>
-      <c r="AA59" s="7"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="17"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="17"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AMJ59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" s="0"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="15"/>
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
@@ -2721,20 +3086,28 @@
       <c r="V60" s="15"/>
       <c r="W60" s="15"/>
       <c r="X60" s="15"/>
-      <c r="Y60" s="15"/>
-      <c r="Z60" s="7"/>
-      <c r="AA60" s="7"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="17"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="17"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AMJ60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="0"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="15"/>
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
       <c r="L61" s="15"/>
@@ -2750,17 +3123,17 @@
       <c r="V61" s="15"/>
       <c r="W61" s="15"/>
       <c r="X61" s="15"/>
-      <c r="Y61" s="15"/>
-      <c r="Z61" s="7"/>
-      <c r="AA61" s="7"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AMJ61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="17"/>
       <c r="B62" s="15"/>
       <c r="C62" s="17"/>
-      <c r="D62" s="15"/>
+      <c r="D62" s="18"/>
       <c r="E62" s="15"/>
-      <c r="F62" s="25"/>
+      <c r="F62" s="19"/>
       <c r="G62" s="15"/>
       <c r="H62" s="20"/>
       <c r="I62" s="17"/>
@@ -2780,16 +3153,18 @@
       <c r="W62" s="15"/>
       <c r="X62" s="15"/>
       <c r="Y62" s="15"/>
-      <c r="Z62" s="7"/>
-      <c r="AA62" s="7"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="17"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="15"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="18"/>
       <c r="E63" s="15"/>
-      <c r="F63" s="25"/>
+      <c r="F63" s="19"/>
       <c r="G63" s="15"/>
       <c r="H63" s="20"/>
       <c r="I63" s="17"/>
@@ -2809,19 +3184,27 @@
       <c r="W63" s="15"/>
       <c r="X63" s="15"/>
       <c r="Y63" s="15"/>
-      <c r="Z63" s="7"/>
-      <c r="AA63" s="7"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="17"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="17"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="19"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="15"/>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
       <c r="L64" s="15"/>
@@ -2837,20 +3220,28 @@
       <c r="V64" s="15"/>
       <c r="W64" s="15"/>
       <c r="X64" s="15"/>
-      <c r="Y64" s="15"/>
-      <c r="Z64" s="7"/>
-      <c r="AA64" s="7"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="17"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="17"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
+      <c r="AMJ64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" s="38" t="n">
+        <v>279</v>
+      </c>
+      <c r="E65" s="19"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="15"/>
       <c r="J65" s="15"/>
       <c r="K65" s="15"/>
       <c r="L65" s="15"/>
@@ -2866,20 +3257,28 @@
       <c r="V65" s="15"/>
       <c r="W65" s="15"/>
       <c r="X65" s="15"/>
-      <c r="Y65" s="15"/>
-      <c r="Z65" s="7"/>
-      <c r="AA65" s="7"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="17"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="17"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+      <c r="AMJ65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" s="38" t="n">
+        <v>369</v>
+      </c>
+      <c r="E66" s="19"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="15"/>
       <c r="J66" s="15"/>
       <c r="K66" s="15"/>
       <c r="L66" s="15"/>
@@ -2895,20 +3294,28 @@
       <c r="V66" s="15"/>
       <c r="W66" s="15"/>
       <c r="X66" s="15"/>
-      <c r="Y66" s="15"/>
-      <c r="Z66" s="7"/>
-      <c r="AA66" s="7"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="17"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="17"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
+      <c r="AMJ66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" s="38" t="n">
+        <v>116</v>
+      </c>
+      <c r="E67" s="19"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="15"/>
       <c r="J67" s="15"/>
       <c r="K67" s="15"/>
       <c r="L67" s="15"/>
@@ -2924,20 +3331,28 @@
       <c r="V67" s="15"/>
       <c r="W67" s="15"/>
       <c r="X67" s="15"/>
-      <c r="Y67" s="15"/>
-      <c r="Z67" s="7"/>
-      <c r="AA67" s="7"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="17"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="17"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="8"/>
+      <c r="AMJ67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" s="38" t="n">
+        <v>203</v>
+      </c>
+      <c r="E68" s="19"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="15"/>
       <c r="J68" s="15"/>
       <c r="K68" s="15"/>
       <c r="L68" s="15"/>
@@ -2953,20 +3368,28 @@
       <c r="V68" s="15"/>
       <c r="W68" s="15"/>
       <c r="X68" s="15"/>
-      <c r="Y68" s="15"/>
-      <c r="Z68" s="7"/>
-      <c r="AA68" s="7"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="17"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="17"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="8"/>
+      <c r="AMJ68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" s="38" t="n">
+        <v>152</v>
+      </c>
+      <c r="E69" s="19"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="15"/>
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
       <c r="L69" s="15"/>
@@ -2982,20 +3405,28 @@
       <c r="V69" s="15"/>
       <c r="W69" s="15"/>
       <c r="X69" s="15"/>
-      <c r="Y69" s="15"/>
-      <c r="Z69" s="7"/>
-      <c r="AA69" s="7"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="17"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="17"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="8"/>
+      <c r="AMJ69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D70" s="38" t="n">
+        <v>105</v>
+      </c>
+      <c r="E70" s="19"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="15"/>
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
       <c r="L70" s="15"/>
@@ -3011,20 +3442,28 @@
       <c r="V70" s="15"/>
       <c r="W70" s="15"/>
       <c r="X70" s="15"/>
-      <c r="Y70" s="15"/>
-      <c r="Z70" s="7"/>
-      <c r="AA70" s="7"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="17"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="17"/>
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="8"/>
+      <c r="AMJ70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="D71" s="38" t="n">
+        <v>207</v>
+      </c>
+      <c r="E71" s="19"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="15"/>
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
       <c r="L71" s="15"/>
@@ -3040,20 +3479,28 @@
       <c r="V71" s="15"/>
       <c r="W71" s="15"/>
       <c r="X71" s="15"/>
-      <c r="Y71" s="15"/>
-      <c r="Z71" s="7"/>
-      <c r="AA71" s="7"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="17"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="17"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="8"/>
+      <c r="AMJ71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="D72" s="38" t="n">
+        <v>267</v>
+      </c>
+      <c r="E72" s="19"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="15"/>
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
       <c r="L72" s="15"/>
@@ -3069,20 +3516,28 @@
       <c r="V72" s="15"/>
       <c r="W72" s="15"/>
       <c r="X72" s="15"/>
-      <c r="Y72" s="15"/>
-      <c r="Z72" s="7"/>
-      <c r="AA72" s="7"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="17"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="17"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+      <c r="AMJ72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="26" t="n">
+        <v>9</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="D73" s="38" t="n">
+        <v>244</v>
+      </c>
+      <c r="E73" s="19"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="15"/>
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
       <c r="L73" s="15"/>
@@ -3098,20 +3553,28 @@
       <c r="V73" s="15"/>
       <c r="W73" s="15"/>
       <c r="X73" s="15"/>
-      <c r="Y73" s="15"/>
-      <c r="Z73" s="7"/>
-      <c r="AA73" s="7"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="17"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="17"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
+      <c r="AMJ73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="D74" s="38" t="n">
+        <v>100</v>
+      </c>
+      <c r="E74" s="19"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="15"/>
       <c r="J74" s="15"/>
       <c r="K74" s="15"/>
       <c r="L74" s="15"/>
@@ -3127,17 +3590,17 @@
       <c r="V74" s="15"/>
       <c r="W74" s="15"/>
       <c r="X74" s="15"/>
-      <c r="Y74" s="15"/>
-      <c r="Z74" s="7"/>
-      <c r="AA74" s="7"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="8"/>
+      <c r="AMJ74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="17"/>
       <c r="B75" s="15"/>
       <c r="C75" s="17"/>
-      <c r="D75" s="15"/>
+      <c r="D75" s="18"/>
       <c r="E75" s="15"/>
-      <c r="F75" s="25"/>
+      <c r="F75" s="19"/>
       <c r="G75" s="15"/>
       <c r="H75" s="20"/>
       <c r="I75" s="17"/>
@@ -3157,16 +3620,20 @@
       <c r="W75" s="15"/>
       <c r="X75" s="15"/>
       <c r="Y75" s="15"/>
-      <c r="Z75" s="7"/>
-      <c r="AA75" s="7"/>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="17"/>
-      <c r="B76" s="15"/>
+      <c r="Z75" s="8"/>
+      <c r="AA75" s="8"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B76" s="27"/>
       <c r="C76" s="17"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="25"/>
+      <c r="D76" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" s="40"/>
+      <c r="F76" s="19"/>
       <c r="G76" s="15"/>
       <c r="H76" s="20"/>
       <c r="I76" s="17"/>
@@ -3186,19 +3653,27 @@
       <c r="W76" s="15"/>
       <c r="X76" s="15"/>
       <c r="Y76" s="15"/>
-      <c r="Z76" s="7"/>
-      <c r="AA76" s="7"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="17"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="17"/>
+      <c r="Z76" s="8"/>
+      <c r="AA76" s="8"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0"/>
+      <c r="B77" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" s="0"/>
+      <c r="E77" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G77" s="17"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
       <c r="J77" s="15"/>
       <c r="K77" s="15"/>
       <c r="L77" s="15"/>
@@ -3213,21 +3688,31 @@
       <c r="U77" s="15"/>
       <c r="V77" s="15"/>
       <c r="W77" s="15"/>
-      <c r="X77" s="15"/>
-      <c r="Y77" s="15"/>
-      <c r="Z77" s="7"/>
-      <c r="AA77" s="7"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="17"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="17"/>
+      <c r="X77" s="8"/>
+      <c r="Y77" s="8"/>
+      <c r="AMI77" s="0"/>
+      <c r="AMJ77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" s="30" t="n">
+        <v>8</v>
+      </c>
+      <c r="D78" s="0"/>
+      <c r="E78" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="17"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
       <c r="J78" s="15"/>
       <c r="K78" s="15"/>
       <c r="L78" s="15"/>
@@ -3242,21 +3727,31 @@
       <c r="U78" s="15"/>
       <c r="V78" s="15"/>
       <c r="W78" s="15"/>
-      <c r="X78" s="15"/>
-      <c r="Y78" s="15"/>
-      <c r="Z78" s="7"/>
-      <c r="AA78" s="7"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="17"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="17"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="AMI78" s="0"/>
+      <c r="AMJ78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" s="0"/>
+      <c r="E79" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G79" s="17"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
       <c r="L79" s="15"/>
@@ -3271,21 +3766,31 @@
       <c r="U79" s="15"/>
       <c r="V79" s="15"/>
       <c r="W79" s="15"/>
-      <c r="X79" s="15"/>
-      <c r="Y79" s="15"/>
-      <c r="Z79" s="7"/>
-      <c r="AA79" s="7"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="17"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="17"/>
+      <c r="X79" s="8"/>
+      <c r="Y79" s="8"/>
+      <c r="AMI79" s="0"/>
+      <c r="AMJ79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" s="30" t="n">
+        <v>10</v>
+      </c>
+      <c r="D80" s="0"/>
+      <c r="E80" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="G80" s="17"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
       <c r="L80" s="15"/>
@@ -3300,21 +3805,31 @@
       <c r="U80" s="15"/>
       <c r="V80" s="15"/>
       <c r="W80" s="15"/>
-      <c r="X80" s="15"/>
-      <c r="Y80" s="15"/>
-      <c r="Z80" s="7"/>
-      <c r="AA80" s="7"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="17"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="17"/>
+      <c r="X80" s="8"/>
+      <c r="Y80" s="8"/>
+      <c r="AMI80" s="0"/>
+      <c r="AMJ80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C81" s="30" t="n">
+        <v>10</v>
+      </c>
+      <c r="D81" s="0"/>
+      <c r="E81" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F81" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="17"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
       <c r="J81" s="15"/>
       <c r="K81" s="15"/>
       <c r="L81" s="15"/>
@@ -3329,21 +3844,31 @@
       <c r="U81" s="15"/>
       <c r="V81" s="15"/>
       <c r="W81" s="15"/>
-      <c r="X81" s="15"/>
-      <c r="Y81" s="15"/>
-      <c r="Z81" s="7"/>
-      <c r="AA81" s="7"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="17"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="17"/>
+      <c r="X81" s="8"/>
+      <c r="Y81" s="8"/>
+      <c r="AMI81" s="0"/>
+      <c r="AMJ81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C82" s="30" t="n">
+        <v>7</v>
+      </c>
+      <c r="D82" s="0"/>
+      <c r="E82" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="G82" s="17"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
       <c r="L82" s="15"/>
@@ -3358,21 +3883,31 @@
       <c r="U82" s="15"/>
       <c r="V82" s="15"/>
       <c r="W82" s="15"/>
-      <c r="X82" s="15"/>
-      <c r="Y82" s="15"/>
-      <c r="Z82" s="7"/>
-      <c r="AA82" s="7"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="17"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="17"/>
+      <c r="X82" s="8"/>
+      <c r="Y82" s="8"/>
+      <c r="AMI82" s="0"/>
+      <c r="AMJ82" s="0"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B83" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C83" s="30" t="n">
+        <v>10</v>
+      </c>
+      <c r="D83" s="0"/>
+      <c r="E83" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G83" s="17"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
       <c r="J83" s="15"/>
       <c r="K83" s="15"/>
       <c r="L83" s="15"/>
@@ -3387,21 +3922,31 @@
       <c r="U83" s="15"/>
       <c r="V83" s="15"/>
       <c r="W83" s="15"/>
-      <c r="X83" s="15"/>
-      <c r="Y83" s="15"/>
-      <c r="Z83" s="7"/>
-      <c r="AA83" s="7"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="17"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="17"/>
+      <c r="X83" s="8"/>
+      <c r="Y83" s="8"/>
+      <c r="AMI83" s="0"/>
+      <c r="AMJ83" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C84" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D84" s="0"/>
+      <c r="E84" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="F84" s="37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G84" s="17"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
       <c r="J84" s="15"/>
       <c r="K84" s="15"/>
       <c r="L84" s="15"/>
@@ -3416,21 +3961,31 @@
       <c r="U84" s="15"/>
       <c r="V84" s="15"/>
       <c r="W84" s="15"/>
-      <c r="X84" s="15"/>
-      <c r="Y84" s="15"/>
-      <c r="Z84" s="7"/>
-      <c r="AA84" s="7"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="17"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="17"/>
+      <c r="X84" s="8"/>
+      <c r="Y84" s="8"/>
+      <c r="AMI84" s="0"/>
+      <c r="AMJ84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C85" s="30" t="n">
+        <v>8</v>
+      </c>
+      <c r="D85" s="0"/>
+      <c r="E85" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" s="37" t="n">
+        <v>5</v>
+      </c>
+      <c r="G85" s="17"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
       <c r="J85" s="15"/>
       <c r="K85" s="15"/>
       <c r="L85" s="15"/>
@@ -3445,21 +4000,31 @@
       <c r="U85" s="15"/>
       <c r="V85" s="15"/>
       <c r="W85" s="15"/>
-      <c r="X85" s="15"/>
-      <c r="Y85" s="15"/>
-      <c r="Z85" s="7"/>
-      <c r="AA85" s="7"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="17"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="17"/>
+      <c r="X85" s="8"/>
+      <c r="Y85" s="8"/>
+      <c r="AMI85" s="0"/>
+      <c r="AMJ85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C86" s="30" t="n">
+        <v>8</v>
+      </c>
+      <c r="D86" s="0"/>
+      <c r="E86" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="F86" s="37" t="n">
+        <v>6</v>
+      </c>
+      <c r="G86" s="17"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
       <c r="J86" s="15"/>
       <c r="K86" s="15"/>
       <c r="L86" s="15"/>
@@ -3474,21 +4039,31 @@
       <c r="U86" s="15"/>
       <c r="V86" s="15"/>
       <c r="W86" s="15"/>
-      <c r="X86" s="15"/>
-      <c r="Y86" s="15"/>
-      <c r="Z86" s="7"/>
-      <c r="AA86" s="7"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="17"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="17"/>
+      <c r="X86" s="8"/>
+      <c r="Y86" s="8"/>
+      <c r="AMI86" s="0"/>
+      <c r="AMJ86" s="0"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C87" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="D87" s="0"/>
+      <c r="E87" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="F87" s="37" t="n">
+        <v>6</v>
+      </c>
+      <c r="G87" s="17"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
       <c r="J87" s="15"/>
       <c r="K87" s="15"/>
       <c r="L87" s="15"/>
@@ -3503,18 +4078,28 @@
       <c r="U87" s="15"/>
       <c r="V87" s="15"/>
       <c r="W87" s="15"/>
-      <c r="X87" s="15"/>
-      <c r="Y87" s="15"/>
-      <c r="Z87" s="7"/>
-      <c r="AA87" s="7"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="17"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="25"/>
+      <c r="X87" s="8"/>
+      <c r="Y87" s="8"/>
+      <c r="AMI87" s="0"/>
+      <c r="AMJ87" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C88" s="30" t="n">
+        <v>7</v>
+      </c>
+      <c r="D88" s="0"/>
+      <c r="E88" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="F88" s="37" t="n">
+        <v>1</v>
+      </c>
       <c r="G88" s="15"/>
       <c r="H88" s="20"/>
       <c r="I88" s="17"/>
@@ -3534,16 +4119,26 @@
       <c r="W88" s="15"/>
       <c r="X88" s="15"/>
       <c r="Y88" s="15"/>
-      <c r="Z88" s="7"/>
-      <c r="AA88" s="7"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="17"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="25"/>
+      <c r="Z88" s="8"/>
+      <c r="AA88" s="8"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C89" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" s="0"/>
+      <c r="E89" s="30" t="n">
+        <v>7</v>
+      </c>
+      <c r="F89" s="37" t="n">
+        <v>6</v>
+      </c>
       <c r="G89" s="15"/>
       <c r="H89" s="20"/>
       <c r="I89" s="17"/>
@@ -3563,16 +4158,26 @@
       <c r="W89" s="15"/>
       <c r="X89" s="15"/>
       <c r="Y89" s="15"/>
-      <c r="Z89" s="7"/>
-      <c r="AA89" s="7"/>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="17"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="25"/>
+      <c r="Z89" s="8"/>
+      <c r="AA89" s="8"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C90" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="D90" s="0"/>
+      <c r="E90" s="30" t="n">
+        <v>8</v>
+      </c>
+      <c r="F90" s="37" t="s">
+        <v>123</v>
+      </c>
       <c r="G90" s="15"/>
       <c r="H90" s="20"/>
       <c r="I90" s="17"/>
@@ -3592,16 +4197,26 @@
       <c r="W90" s="15"/>
       <c r="X90" s="15"/>
       <c r="Y90" s="15"/>
-      <c r="Z90" s="7"/>
-      <c r="AA90" s="7"/>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="17"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="25"/>
+      <c r="Z90" s="8"/>
+      <c r="AA90" s="8"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="C91" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="D91" s="0"/>
+      <c r="E91" s="30" t="n">
+        <v>9</v>
+      </c>
+      <c r="F91" s="37" t="n">
+        <v>3</v>
+      </c>
       <c r="G91" s="15"/>
       <c r="H91" s="20"/>
       <c r="I91" s="17"/>
@@ -3621,16 +4236,26 @@
       <c r="W91" s="15"/>
       <c r="X91" s="15"/>
       <c r="Y91" s="15"/>
-      <c r="Z91" s="7"/>
-      <c r="AA91" s="7"/>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="17"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="25"/>
+      <c r="Z91" s="8"/>
+      <c r="AA91" s="8"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92" s="26" t="n">
+        <v>9</v>
+      </c>
+      <c r="C92" s="30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D92" s="0"/>
+      <c r="E92" s="30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F92" s="37" t="n">
+        <v>2</v>
+      </c>
       <c r="G92" s="15"/>
       <c r="H92" s="20"/>
       <c r="I92" s="17"/>
@@ -3650,16 +4275,22 @@
       <c r="W92" s="15"/>
       <c r="X92" s="15"/>
       <c r="Y92" s="15"/>
-      <c r="Z92" s="7"/>
-      <c r="AA92" s="7"/>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="17"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="15"/>
+      <c r="Z92" s="8"/>
+      <c r="AA92" s="8"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B93" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C93" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D93" s="18"/>
       <c r="E93" s="15"/>
-      <c r="F93" s="25"/>
+      <c r="F93" s="19"/>
       <c r="G93" s="15"/>
       <c r="H93" s="20"/>
       <c r="I93" s="17"/>
@@ -3679,16 +4310,16 @@
       <c r="W93" s="15"/>
       <c r="X93" s="15"/>
       <c r="Y93" s="15"/>
-      <c r="Z93" s="7"/>
-      <c r="AA93" s="7"/>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
+      <c r="Z93" s="8"/>
+      <c r="AA93" s="8"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="17"/>
       <c r="B94" s="15"/>
       <c r="C94" s="17"/>
-      <c r="D94" s="15"/>
+      <c r="D94" s="18"/>
       <c r="E94" s="15"/>
-      <c r="F94" s="25"/>
+      <c r="F94" s="19"/>
       <c r="G94" s="15"/>
       <c r="H94" s="20"/>
       <c r="I94" s="17"/>
@@ -3708,16 +4339,16 @@
       <c r="W94" s="15"/>
       <c r="X94" s="15"/>
       <c r="Y94" s="15"/>
-      <c r="Z94" s="7"/>
-      <c r="AA94" s="7"/>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
+      <c r="Z94" s="8"/>
+      <c r="AA94" s="8"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="17"/>
       <c r="B95" s="15"/>
       <c r="C95" s="17"/>
-      <c r="D95" s="15"/>
+      <c r="D95" s="18"/>
       <c r="E95" s="15"/>
-      <c r="F95" s="25"/>
+      <c r="F95" s="19"/>
       <c r="G95" s="15"/>
       <c r="H95" s="20"/>
       <c r="I95" s="17"/>
@@ -3737,16 +4368,16 @@
       <c r="W95" s="15"/>
       <c r="X95" s="15"/>
       <c r="Y95" s="15"/>
-      <c r="Z95" s="7"/>
-      <c r="AA95" s="7"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="17"/>
+      <c r="Z95" s="8"/>
+      <c r="AA95" s="8"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="11"/>
       <c r="B96" s="15"/>
       <c r="C96" s="17"/>
-      <c r="D96" s="15"/>
+      <c r="D96" s="18"/>
       <c r="E96" s="15"/>
-      <c r="F96" s="25"/>
+      <c r="F96" s="19"/>
       <c r="G96" s="15"/>
       <c r="H96" s="20"/>
       <c r="I96" s="17"/>
@@ -3766,16 +4397,16 @@
       <c r="W96" s="15"/>
       <c r="X96" s="15"/>
       <c r="Y96" s="15"/>
-      <c r="Z96" s="7"/>
-      <c r="AA96" s="7"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="17"/>
+      <c r="Z96" s="8"/>
+      <c r="AA96" s="8"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="11"/>
       <c r="B97" s="15"/>
       <c r="C97" s="17"/>
-      <c r="D97" s="15"/>
+      <c r="D97" s="18"/>
       <c r="E97" s="15"/>
-      <c r="F97" s="25"/>
+      <c r="F97" s="19"/>
       <c r="G97" s="15"/>
       <c r="H97" s="20"/>
       <c r="I97" s="17"/>
@@ -3795,16 +4426,16 @@
       <c r="W97" s="15"/>
       <c r="X97" s="15"/>
       <c r="Y97" s="15"/>
-      <c r="Z97" s="7"/>
-      <c r="AA97" s="7"/>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="17"/>
+      <c r="Z97" s="8"/>
+      <c r="AA97" s="8"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0"/>
       <c r="B98" s="15"/>
       <c r="C98" s="17"/>
-      <c r="D98" s="15"/>
+      <c r="D98" s="18"/>
       <c r="E98" s="15"/>
-      <c r="F98" s="25"/>
+      <c r="F98" s="19"/>
       <c r="G98" s="15"/>
       <c r="H98" s="20"/>
       <c r="I98" s="17"/>
@@ -3824,16 +4455,16 @@
       <c r="W98" s="15"/>
       <c r="X98" s="15"/>
       <c r="Y98" s="15"/>
-      <c r="Z98" s="7"/>
-      <c r="AA98" s="7"/>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="17"/>
+      <c r="Z98" s="8"/>
+      <c r="AA98" s="8"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0"/>
       <c r="B99" s="15"/>
       <c r="C99" s="17"/>
-      <c r="D99" s="15"/>
+      <c r="D99" s="18"/>
       <c r="E99" s="15"/>
-      <c r="F99" s="25"/>
+      <c r="F99" s="19"/>
       <c r="G99" s="15"/>
       <c r="H99" s="20"/>
       <c r="I99" s="17"/>
@@ -3853,16 +4484,16 @@
       <c r="W99" s="15"/>
       <c r="X99" s="15"/>
       <c r="Y99" s="15"/>
-      <c r="Z99" s="7"/>
-      <c r="AA99" s="7"/>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="17"/>
+      <c r="Z99" s="8"/>
+      <c r="AA99" s="8"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0"/>
       <c r="B100" s="15"/>
       <c r="C100" s="17"/>
-      <c r="D100" s="15"/>
+      <c r="D100" s="18"/>
       <c r="E100" s="15"/>
-      <c r="F100" s="25"/>
+      <c r="F100" s="19"/>
       <c r="G100" s="15"/>
       <c r="H100" s="20"/>
       <c r="I100" s="17"/>
@@ -3882,16 +4513,16 @@
       <c r="W100" s="15"/>
       <c r="X100" s="15"/>
       <c r="Y100" s="15"/>
-      <c r="Z100" s="7"/>
-      <c r="AA100" s="7"/>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="17"/>
+      <c r="Z100" s="8"/>
+      <c r="AA100" s="8"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0"/>
       <c r="B101" s="15"/>
       <c r="C101" s="17"/>
-      <c r="D101" s="15"/>
+      <c r="D101" s="18"/>
       <c r="E101" s="15"/>
-      <c r="F101" s="25"/>
+      <c r="F101" s="19"/>
       <c r="G101" s="15"/>
       <c r="H101" s="20"/>
       <c r="I101" s="17"/>
@@ -3911,16 +4542,16 @@
       <c r="W101" s="15"/>
       <c r="X101" s="15"/>
       <c r="Y101" s="15"/>
-      <c r="Z101" s="7"/>
-      <c r="AA101" s="7"/>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="17"/>
+      <c r="Z101" s="8"/>
+      <c r="AA101" s="8"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0"/>
       <c r="B102" s="15"/>
       <c r="C102" s="17"/>
-      <c r="D102" s="15"/>
+      <c r="D102" s="18"/>
       <c r="E102" s="15"/>
-      <c r="F102" s="25"/>
+      <c r="F102" s="19"/>
       <c r="G102" s="15"/>
       <c r="H102" s="20"/>
       <c r="I102" s="17"/>
@@ -3940,16 +4571,16 @@
       <c r="W102" s="15"/>
       <c r="X102" s="15"/>
       <c r="Y102" s="15"/>
-      <c r="Z102" s="7"/>
-      <c r="AA102" s="7"/>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="17"/>
+      <c r="Z102" s="8"/>
+      <c r="AA102" s="8"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0"/>
       <c r="B103" s="15"/>
       <c r="C103" s="17"/>
-      <c r="D103" s="15"/>
+      <c r="D103" s="18"/>
       <c r="E103" s="15"/>
-      <c r="F103" s="25"/>
+      <c r="F103" s="19"/>
       <c r="G103" s="15"/>
       <c r="H103" s="20"/>
       <c r="I103" s="17"/>
@@ -3969,16 +4600,16 @@
       <c r="W103" s="15"/>
       <c r="X103" s="15"/>
       <c r="Y103" s="15"/>
-      <c r="Z103" s="7"/>
-      <c r="AA103" s="7"/>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="17"/>
+      <c r="Z103" s="8"/>
+      <c r="AA103" s="8"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0"/>
       <c r="B104" s="15"/>
       <c r="C104" s="17"/>
-      <c r="D104" s="15"/>
+      <c r="D104" s="18"/>
       <c r="E104" s="15"/>
-      <c r="F104" s="25"/>
+      <c r="F104" s="19"/>
       <c r="G104" s="15"/>
       <c r="H104" s="20"/>
       <c r="I104" s="17"/>
@@ -3998,16 +4629,16 @@
       <c r="W104" s="15"/>
       <c r="X104" s="15"/>
       <c r="Y104" s="15"/>
-      <c r="Z104" s="7"/>
-      <c r="AA104" s="7"/>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
+      <c r="Z104" s="8"/>
+      <c r="AA104" s="8"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="17"/>
       <c r="B105" s="15"/>
       <c r="C105" s="17"/>
-      <c r="D105" s="15"/>
+      <c r="D105" s="18"/>
       <c r="E105" s="15"/>
-      <c r="F105" s="25"/>
+      <c r="F105" s="19"/>
       <c r="G105" s="15"/>
       <c r="H105" s="20"/>
       <c r="I105" s="17"/>
@@ -4027,16 +4658,16 @@
       <c r="W105" s="15"/>
       <c r="X105" s="15"/>
       <c r="Y105" s="15"/>
-      <c r="Z105" s="7"/>
-      <c r="AA105" s="7"/>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
+      <c r="Z105" s="8"/>
+      <c r="AA105" s="8"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="17"/>
       <c r="B106" s="15"/>
       <c r="C106" s="17"/>
-      <c r="D106" s="15"/>
+      <c r="D106" s="18"/>
       <c r="E106" s="15"/>
-      <c r="F106" s="25"/>
+      <c r="F106" s="19"/>
       <c r="G106" s="15"/>
       <c r="H106" s="20"/>
       <c r="I106" s="17"/>
@@ -4056,16 +4687,16 @@
       <c r="W106" s="15"/>
       <c r="X106" s="15"/>
       <c r="Y106" s="15"/>
-      <c r="Z106" s="7"/>
-      <c r="AA106" s="7"/>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
+      <c r="Z106" s="8"/>
+      <c r="AA106" s="8"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="17"/>
       <c r="B107" s="15"/>
       <c r="C107" s="17"/>
-      <c r="D107" s="15"/>
+      <c r="D107" s="18"/>
       <c r="E107" s="15"/>
-      <c r="F107" s="25"/>
+      <c r="F107" s="19"/>
       <c r="G107" s="15"/>
       <c r="H107" s="20"/>
       <c r="I107" s="17"/>
@@ -4085,16 +4716,16 @@
       <c r="W107" s="15"/>
       <c r="X107" s="15"/>
       <c r="Y107" s="15"/>
-      <c r="Z107" s="7"/>
-      <c r="AA107" s="7"/>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
+      <c r="Z107" s="8"/>
+      <c r="AA107" s="8"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="17"/>
       <c r="B108" s="15"/>
       <c r="C108" s="17"/>
-      <c r="D108" s="15"/>
+      <c r="D108" s="18"/>
       <c r="E108" s="15"/>
-      <c r="F108" s="25"/>
+      <c r="F108" s="19"/>
       <c r="G108" s="15"/>
       <c r="H108" s="20"/>
       <c r="I108" s="17"/>
@@ -4114,16 +4745,16 @@
       <c r="W108" s="15"/>
       <c r="X108" s="15"/>
       <c r="Y108" s="15"/>
-      <c r="Z108" s="7"/>
-      <c r="AA108" s="7"/>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
+      <c r="Z108" s="8"/>
+      <c r="AA108" s="8"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="17"/>
       <c r="B109" s="15"/>
       <c r="C109" s="17"/>
-      <c r="D109" s="15"/>
+      <c r="D109" s="18"/>
       <c r="E109" s="15"/>
-      <c r="F109" s="25"/>
+      <c r="F109" s="19"/>
       <c r="G109" s="15"/>
       <c r="H109" s="20"/>
       <c r="I109" s="17"/>
@@ -4143,16 +4774,16 @@
       <c r="W109" s="15"/>
       <c r="X109" s="15"/>
       <c r="Y109" s="15"/>
-      <c r="Z109" s="7"/>
-      <c r="AA109" s="7"/>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
+      <c r="Z109" s="8"/>
+      <c r="AA109" s="8"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="17"/>
       <c r="B110" s="15"/>
       <c r="C110" s="17"/>
-      <c r="D110" s="15"/>
+      <c r="D110" s="18"/>
       <c r="E110" s="15"/>
-      <c r="F110" s="25"/>
+      <c r="F110" s="19"/>
       <c r="G110" s="15"/>
       <c r="H110" s="20"/>
       <c r="I110" s="17"/>
@@ -4172,16 +4803,16 @@
       <c r="W110" s="15"/>
       <c r="X110" s="15"/>
       <c r="Y110" s="15"/>
-      <c r="Z110" s="7"/>
-      <c r="AA110" s="7"/>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
+      <c r="Z110" s="8"/>
+      <c r="AA110" s="8"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="17"/>
       <c r="B111" s="15"/>
       <c r="C111" s="17"/>
-      <c r="D111" s="15"/>
+      <c r="D111" s="18"/>
       <c r="E111" s="15"/>
-      <c r="F111" s="25"/>
+      <c r="F111" s="19"/>
       <c r="G111" s="15"/>
       <c r="H111" s="20"/>
       <c r="I111" s="17"/>
@@ -4201,16 +4832,16 @@
       <c r="W111" s="15"/>
       <c r="X111" s="15"/>
       <c r="Y111" s="15"/>
-      <c r="Z111" s="7"/>
-      <c r="AA111" s="7"/>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
+      <c r="Z111" s="8"/>
+      <c r="AA111" s="8"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="17"/>
       <c r="B112" s="15"/>
       <c r="C112" s="17"/>
-      <c r="D112" s="15"/>
+      <c r="D112" s="18"/>
       <c r="E112" s="15"/>
-      <c r="F112" s="25"/>
+      <c r="F112" s="19"/>
       <c r="G112" s="15"/>
       <c r="H112" s="20"/>
       <c r="I112" s="17"/>
@@ -4230,16 +4861,16 @@
       <c r="W112" s="15"/>
       <c r="X112" s="15"/>
       <c r="Y112" s="15"/>
-      <c r="Z112" s="7"/>
-      <c r="AA112" s="7"/>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
+      <c r="Z112" s="8"/>
+      <c r="AA112" s="8"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="17"/>
       <c r="B113" s="15"/>
       <c r="C113" s="17"/>
-      <c r="D113" s="15"/>
+      <c r="D113" s="18"/>
       <c r="E113" s="15"/>
-      <c r="F113" s="25"/>
+      <c r="F113" s="19"/>
       <c r="G113" s="15"/>
       <c r="H113" s="20"/>
       <c r="I113" s="17"/>
@@ -4259,16 +4890,16 @@
       <c r="W113" s="15"/>
       <c r="X113" s="15"/>
       <c r="Y113" s="15"/>
-      <c r="Z113" s="7"/>
-      <c r="AA113" s="7"/>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
+      <c r="Z113" s="8"/>
+      <c r="AA113" s="8"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="17"/>
       <c r="B114" s="15"/>
       <c r="C114" s="17"/>
-      <c r="D114" s="15"/>
+      <c r="D114" s="18"/>
       <c r="E114" s="15"/>
-      <c r="F114" s="25"/>
+      <c r="F114" s="19"/>
       <c r="G114" s="15"/>
       <c r="H114" s="20"/>
       <c r="I114" s="17"/>
@@ -4288,16 +4919,16 @@
       <c r="W114" s="15"/>
       <c r="X114" s="15"/>
       <c r="Y114" s="15"/>
-      <c r="Z114" s="7"/>
-      <c r="AA114" s="7"/>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
+      <c r="Z114" s="8"/>
+      <c r="AA114" s="8"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="17"/>
       <c r="B115" s="15"/>
       <c r="C115" s="17"/>
-      <c r="D115" s="15"/>
+      <c r="D115" s="18"/>
       <c r="E115" s="15"/>
-      <c r="F115" s="25"/>
+      <c r="F115" s="19"/>
       <c r="G115" s="15"/>
       <c r="H115" s="20"/>
       <c r="I115" s="17"/>
@@ -4317,16 +4948,16 @@
       <c r="W115" s="15"/>
       <c r="X115" s="15"/>
       <c r="Y115" s="15"/>
-      <c r="Z115" s="7"/>
-      <c r="AA115" s="7"/>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
+      <c r="Z115" s="8"/>
+      <c r="AA115" s="8"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="17"/>
       <c r="B116" s="15"/>
       <c r="C116" s="17"/>
-      <c r="D116" s="15"/>
+      <c r="D116" s="18"/>
       <c r="E116" s="15"/>
-      <c r="F116" s="25"/>
+      <c r="F116" s="19"/>
       <c r="G116" s="15"/>
       <c r="H116" s="20"/>
       <c r="I116" s="17"/>
@@ -4346,16 +4977,16 @@
       <c r="W116" s="15"/>
       <c r="X116" s="15"/>
       <c r="Y116" s="15"/>
-      <c r="Z116" s="7"/>
-      <c r="AA116" s="7"/>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
+      <c r="Z116" s="8"/>
+      <c r="AA116" s="8"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="17"/>
       <c r="B117" s="15"/>
       <c r="C117" s="17"/>
-      <c r="D117" s="15"/>
+      <c r="D117" s="18"/>
       <c r="E117" s="15"/>
-      <c r="F117" s="25"/>
+      <c r="F117" s="19"/>
       <c r="G117" s="15"/>
       <c r="H117" s="20"/>
       <c r="I117" s="17"/>
@@ -4375,16 +5006,16 @@
       <c r="W117" s="15"/>
       <c r="X117" s="15"/>
       <c r="Y117" s="15"/>
-      <c r="Z117" s="7"/>
-      <c r="AA117" s="7"/>
-    </row>
-    <row r="118" ht="15.75" customHeight="1">
+      <c r="Z117" s="8"/>
+      <c r="AA117" s="8"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="17"/>
       <c r="B118" s="15"/>
       <c r="C118" s="17"/>
-      <c r="D118" s="15"/>
+      <c r="D118" s="18"/>
       <c r="E118" s="15"/>
-      <c r="F118" s="25"/>
+      <c r="F118" s="19"/>
       <c r="G118" s="15"/>
       <c r="H118" s="20"/>
       <c r="I118" s="17"/>
@@ -4404,16 +5035,16 @@
       <c r="W118" s="15"/>
       <c r="X118" s="15"/>
       <c r="Y118" s="15"/>
-      <c r="Z118" s="7"/>
-      <c r="AA118" s="7"/>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
+      <c r="Z118" s="8"/>
+      <c r="AA118" s="8"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="17"/>
       <c r="B119" s="15"/>
       <c r="C119" s="17"/>
-      <c r="D119" s="15"/>
+      <c r="D119" s="18"/>
       <c r="E119" s="15"/>
-      <c r="F119" s="25"/>
+      <c r="F119" s="19"/>
       <c r="G119" s="15"/>
       <c r="H119" s="20"/>
       <c r="I119" s="17"/>
@@ -4433,16 +5064,16 @@
       <c r="W119" s="15"/>
       <c r="X119" s="15"/>
       <c r="Y119" s="15"/>
-      <c r="Z119" s="7"/>
-      <c r="AA119" s="7"/>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
+      <c r="Z119" s="8"/>
+      <c r="AA119" s="8"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="17"/>
       <c r="B120" s="15"/>
       <c r="C120" s="17"/>
-      <c r="D120" s="15"/>
+      <c r="D120" s="18"/>
       <c r="E120" s="15"/>
-      <c r="F120" s="25"/>
+      <c r="F120" s="19"/>
       <c r="G120" s="15"/>
       <c r="H120" s="20"/>
       <c r="I120" s="17"/>
@@ -4462,16 +5093,16 @@
       <c r="W120" s="15"/>
       <c r="X120" s="15"/>
       <c r="Y120" s="15"/>
-      <c r="Z120" s="7"/>
-      <c r="AA120" s="7"/>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
+      <c r="Z120" s="8"/>
+      <c r="AA120" s="8"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="17"/>
       <c r="B121" s="15"/>
       <c r="C121" s="17"/>
-      <c r="D121" s="15"/>
+      <c r="D121" s="18"/>
       <c r="E121" s="15"/>
-      <c r="F121" s="25"/>
+      <c r="F121" s="19"/>
       <c r="G121" s="15"/>
       <c r="H121" s="20"/>
       <c r="I121" s="17"/>
@@ -4491,16 +5122,16 @@
       <c r="W121" s="15"/>
       <c r="X121" s="15"/>
       <c r="Y121" s="15"/>
-      <c r="Z121" s="7"/>
-      <c r="AA121" s="7"/>
-    </row>
-    <row r="122" ht="15.75" customHeight="1">
+      <c r="Z121" s="8"/>
+      <c r="AA121" s="8"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="17"/>
       <c r="B122" s="15"/>
       <c r="C122" s="17"/>
-      <c r="D122" s="15"/>
+      <c r="D122" s="18"/>
       <c r="E122" s="15"/>
-      <c r="F122" s="25"/>
+      <c r="F122" s="19"/>
       <c r="G122" s="15"/>
       <c r="H122" s="20"/>
       <c r="I122" s="17"/>
@@ -4520,16 +5151,16 @@
       <c r="W122" s="15"/>
       <c r="X122" s="15"/>
       <c r="Y122" s="15"/>
-      <c r="Z122" s="7"/>
-      <c r="AA122" s="7"/>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
+      <c r="Z122" s="8"/>
+      <c r="AA122" s="8"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="17"/>
       <c r="B123" s="15"/>
       <c r="C123" s="17"/>
-      <c r="D123" s="15"/>
+      <c r="D123" s="18"/>
       <c r="E123" s="15"/>
-      <c r="F123" s="25"/>
+      <c r="F123" s="19"/>
       <c r="G123" s="15"/>
       <c r="H123" s="20"/>
       <c r="I123" s="17"/>
@@ -4549,16 +5180,16 @@
       <c r="W123" s="15"/>
       <c r="X123" s="15"/>
       <c r="Y123" s="15"/>
-      <c r="Z123" s="7"/>
-      <c r="AA123" s="7"/>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
+      <c r="Z123" s="8"/>
+      <c r="AA123" s="8"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="17"/>
       <c r="B124" s="15"/>
       <c r="C124" s="17"/>
-      <c r="D124" s="15"/>
+      <c r="D124" s="18"/>
       <c r="E124" s="15"/>
-      <c r="F124" s="25"/>
+      <c r="F124" s="19"/>
       <c r="G124" s="15"/>
       <c r="H124" s="20"/>
       <c r="I124" s="17"/>
@@ -4578,16 +5209,16 @@
       <c r="W124" s="15"/>
       <c r="X124" s="15"/>
       <c r="Y124" s="15"/>
-      <c r="Z124" s="7"/>
-      <c r="AA124" s="7"/>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
+      <c r="Z124" s="8"/>
+      <c r="AA124" s="8"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="17"/>
       <c r="B125" s="15"/>
       <c r="C125" s="17"/>
-      <c r="D125" s="15"/>
+      <c r="D125" s="18"/>
       <c r="E125" s="15"/>
-      <c r="F125" s="25"/>
+      <c r="F125" s="19"/>
       <c r="G125" s="15"/>
       <c r="H125" s="20"/>
       <c r="I125" s="17"/>
@@ -4607,16 +5238,16 @@
       <c r="W125" s="15"/>
       <c r="X125" s="15"/>
       <c r="Y125" s="15"/>
-      <c r="Z125" s="7"/>
-      <c r="AA125" s="7"/>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
+      <c r="Z125" s="8"/>
+      <c r="AA125" s="8"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="17"/>
       <c r="B126" s="15"/>
       <c r="C126" s="17"/>
-      <c r="D126" s="15"/>
+      <c r="D126" s="18"/>
       <c r="E126" s="15"/>
-      <c r="F126" s="25"/>
+      <c r="F126" s="19"/>
       <c r="G126" s="15"/>
       <c r="H126" s="20"/>
       <c r="I126" s="17"/>
@@ -4636,16 +5267,16 @@
       <c r="W126" s="15"/>
       <c r="X126" s="15"/>
       <c r="Y126" s="15"/>
-      <c r="Z126" s="7"/>
-      <c r="AA126" s="7"/>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
+      <c r="Z126" s="8"/>
+      <c r="AA126" s="8"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="17"/>
       <c r="B127" s="15"/>
       <c r="C127" s="17"/>
-      <c r="D127" s="15"/>
+      <c r="D127" s="18"/>
       <c r="E127" s="15"/>
-      <c r="F127" s="25"/>
+      <c r="F127" s="19"/>
       <c r="G127" s="15"/>
       <c r="H127" s="20"/>
       <c r="I127" s="17"/>
@@ -4665,16 +5296,16 @@
       <c r="W127" s="15"/>
       <c r="X127" s="15"/>
       <c r="Y127" s="15"/>
-      <c r="Z127" s="7"/>
-      <c r="AA127" s="7"/>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
+      <c r="Z127" s="8"/>
+      <c r="AA127" s="8"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="17"/>
       <c r="B128" s="15"/>
       <c r="C128" s="17"/>
-      <c r="D128" s="15"/>
+      <c r="D128" s="18"/>
       <c r="E128" s="15"/>
-      <c r="F128" s="25"/>
+      <c r="F128" s="19"/>
       <c r="G128" s="15"/>
       <c r="H128" s="20"/>
       <c r="I128" s="17"/>
@@ -4694,16 +5325,16 @@
       <c r="W128" s="15"/>
       <c r="X128" s="15"/>
       <c r="Y128" s="15"/>
-      <c r="Z128" s="7"/>
-      <c r="AA128" s="7"/>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
+      <c r="Z128" s="8"/>
+      <c r="AA128" s="8"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="17"/>
       <c r="B129" s="15"/>
       <c r="C129" s="17"/>
-      <c r="D129" s="15"/>
+      <c r="D129" s="18"/>
       <c r="E129" s="15"/>
-      <c r="F129" s="25"/>
+      <c r="F129" s="19"/>
       <c r="G129" s="15"/>
       <c r="H129" s="20"/>
       <c r="I129" s="17"/>
@@ -4723,16 +5354,16 @@
       <c r="W129" s="15"/>
       <c r="X129" s="15"/>
       <c r="Y129" s="15"/>
-      <c r="Z129" s="7"/>
-      <c r="AA129" s="7"/>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
+      <c r="Z129" s="8"/>
+      <c r="AA129" s="8"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="17"/>
       <c r="B130" s="15"/>
       <c r="C130" s="17"/>
-      <c r="D130" s="15"/>
+      <c r="D130" s="18"/>
       <c r="E130" s="15"/>
-      <c r="F130" s="25"/>
+      <c r="F130" s="19"/>
       <c r="G130" s="15"/>
       <c r="H130" s="20"/>
       <c r="I130" s="17"/>
@@ -4752,16 +5383,16 @@
       <c r="W130" s="15"/>
       <c r="X130" s="15"/>
       <c r="Y130" s="15"/>
-      <c r="Z130" s="7"/>
-      <c r="AA130" s="7"/>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
+      <c r="Z130" s="8"/>
+      <c r="AA130" s="8"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="17"/>
       <c r="B131" s="15"/>
       <c r="C131" s="17"/>
-      <c r="D131" s="15"/>
+      <c r="D131" s="18"/>
       <c r="E131" s="15"/>
-      <c r="F131" s="25"/>
+      <c r="F131" s="19"/>
       <c r="G131" s="15"/>
       <c r="H131" s="20"/>
       <c r="I131" s="17"/>
@@ -4781,16 +5412,16 @@
       <c r="W131" s="15"/>
       <c r="X131" s="15"/>
       <c r="Y131" s="15"/>
-      <c r="Z131" s="7"/>
-      <c r="AA131" s="7"/>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
+      <c r="Z131" s="8"/>
+      <c r="AA131" s="8"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="17"/>
       <c r="B132" s="15"/>
       <c r="C132" s="17"/>
-      <c r="D132" s="15"/>
+      <c r="D132" s="18"/>
       <c r="E132" s="15"/>
-      <c r="F132" s="25"/>
+      <c r="F132" s="19"/>
       <c r="G132" s="15"/>
       <c r="H132" s="20"/>
       <c r="I132" s="17"/>
@@ -4810,16 +5441,16 @@
       <c r="W132" s="15"/>
       <c r="X132" s="15"/>
       <c r="Y132" s="15"/>
-      <c r="Z132" s="7"/>
-      <c r="AA132" s="7"/>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
+      <c r="Z132" s="8"/>
+      <c r="AA132" s="8"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="17"/>
       <c r="B133" s="15"/>
       <c r="C133" s="17"/>
-      <c r="D133" s="15"/>
+      <c r="D133" s="18"/>
       <c r="E133" s="15"/>
-      <c r="F133" s="25"/>
+      <c r="F133" s="19"/>
       <c r="G133" s="15"/>
       <c r="H133" s="20"/>
       <c r="I133" s="17"/>
@@ -4839,16 +5470,16 @@
       <c r="W133" s="15"/>
       <c r="X133" s="15"/>
       <c r="Y133" s="15"/>
-      <c r="Z133" s="7"/>
-      <c r="AA133" s="7"/>
-    </row>
-    <row r="134" ht="15.75" customHeight="1">
+      <c r="Z133" s="8"/>
+      <c r="AA133" s="8"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="17"/>
       <c r="B134" s="15"/>
       <c r="C134" s="17"/>
-      <c r="D134" s="15"/>
+      <c r="D134" s="18"/>
       <c r="E134" s="15"/>
-      <c r="F134" s="25"/>
+      <c r="F134" s="19"/>
       <c r="G134" s="15"/>
       <c r="H134" s="20"/>
       <c r="I134" s="17"/>
@@ -4868,16 +5499,16 @@
       <c r="W134" s="15"/>
       <c r="X134" s="15"/>
       <c r="Y134" s="15"/>
-      <c r="Z134" s="7"/>
-      <c r="AA134" s="7"/>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
+      <c r="Z134" s="8"/>
+      <c r="AA134" s="8"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="17"/>
       <c r="B135" s="15"/>
       <c r="C135" s="17"/>
-      <c r="D135" s="15"/>
+      <c r="D135" s="18"/>
       <c r="E135" s="15"/>
-      <c r="F135" s="25"/>
+      <c r="F135" s="19"/>
       <c r="G135" s="15"/>
       <c r="H135" s="20"/>
       <c r="I135" s="17"/>
@@ -4897,16 +5528,16 @@
       <c r="W135" s="15"/>
       <c r="X135" s="15"/>
       <c r="Y135" s="15"/>
-      <c r="Z135" s="7"/>
-      <c r="AA135" s="7"/>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
+      <c r="Z135" s="8"/>
+      <c r="AA135" s="8"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="17"/>
       <c r="B136" s="15"/>
       <c r="C136" s="17"/>
-      <c r="D136" s="15"/>
+      <c r="D136" s="18"/>
       <c r="E136" s="15"/>
-      <c r="F136" s="25"/>
+      <c r="F136" s="19"/>
       <c r="G136" s="15"/>
       <c r="H136" s="20"/>
       <c r="I136" s="17"/>
@@ -4926,16 +5557,16 @@
       <c r="W136" s="15"/>
       <c r="X136" s="15"/>
       <c r="Y136" s="15"/>
-      <c r="Z136" s="7"/>
-      <c r="AA136" s="7"/>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
+      <c r="Z136" s="8"/>
+      <c r="AA136" s="8"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="17"/>
       <c r="B137" s="15"/>
       <c r="C137" s="17"/>
-      <c r="D137" s="15"/>
+      <c r="D137" s="18"/>
       <c r="E137" s="15"/>
-      <c r="F137" s="25"/>
+      <c r="F137" s="19"/>
       <c r="G137" s="15"/>
       <c r="H137" s="20"/>
       <c r="I137" s="17"/>
@@ -4955,16 +5586,16 @@
       <c r="W137" s="15"/>
       <c r="X137" s="15"/>
       <c r="Y137" s="15"/>
-      <c r="Z137" s="7"/>
-      <c r="AA137" s="7"/>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
+      <c r="Z137" s="8"/>
+      <c r="AA137" s="8"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="17"/>
       <c r="B138" s="15"/>
       <c r="C138" s="17"/>
-      <c r="D138" s="15"/>
+      <c r="D138" s="18"/>
       <c r="E138" s="15"/>
-      <c r="F138" s="25"/>
+      <c r="F138" s="19"/>
       <c r="G138" s="15"/>
       <c r="H138" s="20"/>
       <c r="I138" s="17"/>
@@ -4984,16 +5615,16 @@
       <c r="W138" s="15"/>
       <c r="X138" s="15"/>
       <c r="Y138" s="15"/>
-      <c r="Z138" s="7"/>
-      <c r="AA138" s="7"/>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
+      <c r="Z138" s="8"/>
+      <c r="AA138" s="8"/>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="17"/>
       <c r="B139" s="15"/>
       <c r="C139" s="17"/>
-      <c r="D139" s="15"/>
+      <c r="D139" s="18"/>
       <c r="E139" s="15"/>
-      <c r="F139" s="25"/>
+      <c r="F139" s="19"/>
       <c r="G139" s="15"/>
       <c r="H139" s="20"/>
       <c r="I139" s="17"/>
@@ -5013,16 +5644,16 @@
       <c r="W139" s="15"/>
       <c r="X139" s="15"/>
       <c r="Y139" s="15"/>
-      <c r="Z139" s="7"/>
-      <c r="AA139" s="7"/>
-    </row>
-    <row r="140" ht="15.75" customHeight="1">
+      <c r="Z139" s="8"/>
+      <c r="AA139" s="8"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="17"/>
       <c r="B140" s="15"/>
       <c r="C140" s="17"/>
-      <c r="D140" s="15"/>
+      <c r="D140" s="18"/>
       <c r="E140" s="15"/>
-      <c r="F140" s="25"/>
+      <c r="F140" s="19"/>
       <c r="G140" s="15"/>
       <c r="H140" s="20"/>
       <c r="I140" s="17"/>
@@ -5042,16 +5673,16 @@
       <c r="W140" s="15"/>
       <c r="X140" s="15"/>
       <c r="Y140" s="15"/>
-      <c r="Z140" s="7"/>
-      <c r="AA140" s="7"/>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
+      <c r="Z140" s="8"/>
+      <c r="AA140" s="8"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="17"/>
       <c r="B141" s="15"/>
       <c r="C141" s="17"/>
-      <c r="D141" s="15"/>
+      <c r="D141" s="18"/>
       <c r="E141" s="15"/>
-      <c r="F141" s="25"/>
+      <c r="F141" s="19"/>
       <c r="G141" s="15"/>
       <c r="H141" s="20"/>
       <c r="I141" s="17"/>
@@ -5071,16 +5702,16 @@
       <c r="W141" s="15"/>
       <c r="X141" s="15"/>
       <c r="Y141" s="15"/>
-      <c r="Z141" s="7"/>
-      <c r="AA141" s="7"/>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
+      <c r="Z141" s="8"/>
+      <c r="AA141" s="8"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="17"/>
       <c r="B142" s="15"/>
       <c r="C142" s="17"/>
-      <c r="D142" s="15"/>
+      <c r="D142" s="18"/>
       <c r="E142" s="15"/>
-      <c r="F142" s="25"/>
+      <c r="F142" s="19"/>
       <c r="G142" s="15"/>
       <c r="H142" s="20"/>
       <c r="I142" s="17"/>
@@ -5100,16 +5731,16 @@
       <c r="W142" s="15"/>
       <c r="X142" s="15"/>
       <c r="Y142" s="15"/>
-      <c r="Z142" s="7"/>
-      <c r="AA142" s="7"/>
-    </row>
-    <row r="143" ht="15.75" customHeight="1">
+      <c r="Z142" s="8"/>
+      <c r="AA142" s="8"/>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="17"/>
       <c r="B143" s="15"/>
       <c r="C143" s="17"/>
-      <c r="D143" s="15"/>
+      <c r="D143" s="18"/>
       <c r="E143" s="15"/>
-      <c r="F143" s="25"/>
+      <c r="F143" s="19"/>
       <c r="G143" s="15"/>
       <c r="H143" s="20"/>
       <c r="I143" s="17"/>
@@ -5129,16 +5760,16 @@
       <c r="W143" s="15"/>
       <c r="X143" s="15"/>
       <c r="Y143" s="15"/>
-      <c r="Z143" s="7"/>
-      <c r="AA143" s="7"/>
-    </row>
-    <row r="144" ht="15.75" customHeight="1">
+      <c r="Z143" s="8"/>
+      <c r="AA143" s="8"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="17"/>
       <c r="B144" s="15"/>
       <c r="C144" s="17"/>
-      <c r="D144" s="15"/>
+      <c r="D144" s="18"/>
       <c r="E144" s="15"/>
-      <c r="F144" s="25"/>
+      <c r="F144" s="19"/>
       <c r="G144" s="15"/>
       <c r="H144" s="20"/>
       <c r="I144" s="17"/>
@@ -5158,16 +5789,16 @@
       <c r="W144" s="15"/>
       <c r="X144" s="15"/>
       <c r="Y144" s="15"/>
-      <c r="Z144" s="7"/>
-      <c r="AA144" s="7"/>
-    </row>
-    <row r="145" ht="15.75" customHeight="1">
+      <c r="Z144" s="8"/>
+      <c r="AA144" s="8"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="17"/>
       <c r="B145" s="15"/>
       <c r="C145" s="17"/>
-      <c r="D145" s="15"/>
+      <c r="D145" s="18"/>
       <c r="E145" s="15"/>
-      <c r="F145" s="25"/>
+      <c r="F145" s="19"/>
       <c r="G145" s="15"/>
       <c r="H145" s="20"/>
       <c r="I145" s="17"/>
@@ -5187,16 +5818,16 @@
       <c r="W145" s="15"/>
       <c r="X145" s="15"/>
       <c r="Y145" s="15"/>
-      <c r="Z145" s="7"/>
-      <c r="AA145" s="7"/>
-    </row>
-    <row r="146" ht="15.75" customHeight="1">
+      <c r="Z145" s="8"/>
+      <c r="AA145" s="8"/>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="17"/>
       <c r="B146" s="15"/>
       <c r="C146" s="17"/>
-      <c r="D146" s="15"/>
+      <c r="D146" s="18"/>
       <c r="E146" s="15"/>
-      <c r="F146" s="25"/>
+      <c r="F146" s="19"/>
       <c r="G146" s="15"/>
       <c r="H146" s="20"/>
       <c r="I146" s="17"/>
@@ -5216,16 +5847,16 @@
       <c r="W146" s="15"/>
       <c r="X146" s="15"/>
       <c r="Y146" s="15"/>
-      <c r="Z146" s="7"/>
-      <c r="AA146" s="7"/>
-    </row>
-    <row r="147" ht="15.75" customHeight="1">
+      <c r="Z146" s="8"/>
+      <c r="AA146" s="8"/>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="17"/>
       <c r="B147" s="15"/>
       <c r="C147" s="17"/>
-      <c r="D147" s="15"/>
+      <c r="D147" s="18"/>
       <c r="E147" s="15"/>
-      <c r="F147" s="25"/>
+      <c r="F147" s="19"/>
       <c r="G147" s="15"/>
       <c r="H147" s="20"/>
       <c r="I147" s="17"/>
@@ -5245,16 +5876,16 @@
       <c r="W147" s="15"/>
       <c r="X147" s="15"/>
       <c r="Y147" s="15"/>
-      <c r="Z147" s="7"/>
-      <c r="AA147" s="7"/>
-    </row>
-    <row r="148" ht="15.75" customHeight="1">
+      <c r="Z147" s="8"/>
+      <c r="AA147" s="8"/>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="17"/>
       <c r="B148" s="15"/>
       <c r="C148" s="17"/>
-      <c r="D148" s="15"/>
+      <c r="D148" s="18"/>
       <c r="E148" s="15"/>
-      <c r="F148" s="25"/>
+      <c r="F148" s="19"/>
       <c r="G148" s="15"/>
       <c r="H148" s="20"/>
       <c r="I148" s="17"/>
@@ -5274,16 +5905,16 @@
       <c r="W148" s="15"/>
       <c r="X148" s="15"/>
       <c r="Y148" s="15"/>
-      <c r="Z148" s="7"/>
-      <c r="AA148" s="7"/>
-    </row>
-    <row r="149" ht="15.75" customHeight="1">
+      <c r="Z148" s="8"/>
+      <c r="AA148" s="8"/>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="17"/>
       <c r="B149" s="15"/>
       <c r="C149" s="17"/>
-      <c r="D149" s="15"/>
+      <c r="D149" s="18"/>
       <c r="E149" s="15"/>
-      <c r="F149" s="25"/>
+      <c r="F149" s="19"/>
       <c r="G149" s="15"/>
       <c r="H149" s="20"/>
       <c r="I149" s="17"/>
@@ -5303,16 +5934,16 @@
       <c r="W149" s="15"/>
       <c r="X149" s="15"/>
       <c r="Y149" s="15"/>
-      <c r="Z149" s="7"/>
-      <c r="AA149" s="7"/>
-    </row>
-    <row r="150" ht="15.75" customHeight="1">
+      <c r="Z149" s="8"/>
+      <c r="AA149" s="8"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="17"/>
       <c r="B150" s="15"/>
       <c r="C150" s="17"/>
-      <c r="D150" s="15"/>
+      <c r="D150" s="18"/>
       <c r="E150" s="15"/>
-      <c r="F150" s="25"/>
+      <c r="F150" s="19"/>
       <c r="G150" s="15"/>
       <c r="H150" s="20"/>
       <c r="I150" s="17"/>
@@ -5332,16 +5963,16 @@
       <c r="W150" s="15"/>
       <c r="X150" s="15"/>
       <c r="Y150" s="15"/>
-      <c r="Z150" s="7"/>
-      <c r="AA150" s="7"/>
-    </row>
-    <row r="151" ht="15.75" customHeight="1">
+      <c r="Z150" s="8"/>
+      <c r="AA150" s="8"/>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="17"/>
       <c r="B151" s="15"/>
       <c r="C151" s="17"/>
-      <c r="D151" s="15"/>
+      <c r="D151" s="18"/>
       <c r="E151" s="15"/>
-      <c r="F151" s="25"/>
+      <c r="F151" s="19"/>
       <c r="G151" s="15"/>
       <c r="H151" s="20"/>
       <c r="I151" s="17"/>
@@ -5361,16 +5992,16 @@
       <c r="W151" s="15"/>
       <c r="X151" s="15"/>
       <c r="Y151" s="15"/>
-      <c r="Z151" s="7"/>
-      <c r="AA151" s="7"/>
-    </row>
-    <row r="152" ht="15.75" customHeight="1">
+      <c r="Z151" s="8"/>
+      <c r="AA151" s="8"/>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="17"/>
       <c r="B152" s="15"/>
       <c r="C152" s="17"/>
-      <c r="D152" s="15"/>
+      <c r="D152" s="18"/>
       <c r="E152" s="15"/>
-      <c r="F152" s="25"/>
+      <c r="F152" s="19"/>
       <c r="G152" s="15"/>
       <c r="H152" s="20"/>
       <c r="I152" s="17"/>
@@ -5390,16 +6021,16 @@
       <c r="W152" s="15"/>
       <c r="X152" s="15"/>
       <c r="Y152" s="15"/>
-      <c r="Z152" s="7"/>
-      <c r="AA152" s="7"/>
-    </row>
-    <row r="153" ht="15.75" customHeight="1">
+      <c r="Z152" s="8"/>
+      <c r="AA152" s="8"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="17"/>
       <c r="B153" s="15"/>
       <c r="C153" s="17"/>
-      <c r="D153" s="15"/>
+      <c r="D153" s="18"/>
       <c r="E153" s="15"/>
-      <c r="F153" s="25"/>
+      <c r="F153" s="19"/>
       <c r="G153" s="15"/>
       <c r="H153" s="20"/>
       <c r="I153" s="17"/>
@@ -5419,16 +6050,16 @@
       <c r="W153" s="15"/>
       <c r="X153" s="15"/>
       <c r="Y153" s="15"/>
-      <c r="Z153" s="7"/>
-      <c r="AA153" s="7"/>
-    </row>
-    <row r="154" ht="15.75" customHeight="1">
+      <c r="Z153" s="8"/>
+      <c r="AA153" s="8"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="17"/>
       <c r="B154" s="15"/>
       <c r="C154" s="17"/>
-      <c r="D154" s="15"/>
+      <c r="D154" s="18"/>
       <c r="E154" s="15"/>
-      <c r="F154" s="25"/>
+      <c r="F154" s="19"/>
       <c r="G154" s="15"/>
       <c r="H154" s="20"/>
       <c r="I154" s="17"/>
@@ -5448,16 +6079,16 @@
       <c r="W154" s="15"/>
       <c r="X154" s="15"/>
       <c r="Y154" s="15"/>
-      <c r="Z154" s="7"/>
-      <c r="AA154" s="7"/>
-    </row>
-    <row r="155" ht="15.75" customHeight="1">
+      <c r="Z154" s="8"/>
+      <c r="AA154" s="8"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="17"/>
       <c r="B155" s="15"/>
       <c r="C155" s="17"/>
-      <c r="D155" s="15"/>
+      <c r="D155" s="18"/>
       <c r="E155" s="15"/>
-      <c r="F155" s="25"/>
+      <c r="F155" s="19"/>
       <c r="G155" s="15"/>
       <c r="H155" s="20"/>
       <c r="I155" s="17"/>
@@ -5477,16 +6108,16 @@
       <c r="W155" s="15"/>
       <c r="X155" s="15"/>
       <c r="Y155" s="15"/>
-      <c r="Z155" s="7"/>
-      <c r="AA155" s="7"/>
-    </row>
-    <row r="156" ht="15.75" customHeight="1">
+      <c r="Z155" s="8"/>
+      <c r="AA155" s="8"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="17"/>
       <c r="B156" s="15"/>
       <c r="C156" s="17"/>
-      <c r="D156" s="15"/>
+      <c r="D156" s="18"/>
       <c r="E156" s="15"/>
-      <c r="F156" s="25"/>
+      <c r="F156" s="19"/>
       <c r="G156" s="15"/>
       <c r="H156" s="20"/>
       <c r="I156" s="17"/>
@@ -5506,16 +6137,16 @@
       <c r="W156" s="15"/>
       <c r="X156" s="15"/>
       <c r="Y156" s="15"/>
-      <c r="Z156" s="7"/>
-      <c r="AA156" s="7"/>
-    </row>
-    <row r="157" ht="15.75" customHeight="1">
+      <c r="Z156" s="8"/>
+      <c r="AA156" s="8"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="17"/>
       <c r="B157" s="15"/>
       <c r="C157" s="17"/>
-      <c r="D157" s="15"/>
+      <c r="D157" s="18"/>
       <c r="E157" s="15"/>
-      <c r="F157" s="25"/>
+      <c r="F157" s="19"/>
       <c r="G157" s="15"/>
       <c r="H157" s="20"/>
       <c r="I157" s="17"/>
@@ -5535,16 +6166,16 @@
       <c r="W157" s="15"/>
       <c r="X157" s="15"/>
       <c r="Y157" s="15"/>
-      <c r="Z157" s="7"/>
-      <c r="AA157" s="7"/>
-    </row>
-    <row r="158" ht="15.75" customHeight="1">
+      <c r="Z157" s="8"/>
+      <c r="AA157" s="8"/>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="17"/>
       <c r="B158" s="15"/>
       <c r="C158" s="17"/>
-      <c r="D158" s="15"/>
+      <c r="D158" s="18"/>
       <c r="E158" s="15"/>
-      <c r="F158" s="25"/>
+      <c r="F158" s="19"/>
       <c r="G158" s="15"/>
       <c r="H158" s="20"/>
       <c r="I158" s="17"/>
@@ -5564,16 +6195,16 @@
       <c r="W158" s="15"/>
       <c r="X158" s="15"/>
       <c r="Y158" s="15"/>
-      <c r="Z158" s="7"/>
-      <c r="AA158" s="7"/>
-    </row>
-    <row r="159" ht="15.75" customHeight="1">
+      <c r="Z158" s="8"/>
+      <c r="AA158" s="8"/>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="17"/>
       <c r="B159" s="15"/>
       <c r="C159" s="17"/>
-      <c r="D159" s="15"/>
+      <c r="D159" s="18"/>
       <c r="E159" s="15"/>
-      <c r="F159" s="25"/>
+      <c r="F159" s="19"/>
       <c r="G159" s="15"/>
       <c r="H159" s="20"/>
       <c r="I159" s="17"/>
@@ -5593,16 +6224,16 @@
       <c r="W159" s="15"/>
       <c r="X159" s="15"/>
       <c r="Y159" s="15"/>
-      <c r="Z159" s="7"/>
-      <c r="AA159" s="7"/>
-    </row>
-    <row r="160" ht="15.75" customHeight="1">
+      <c r="Z159" s="8"/>
+      <c r="AA159" s="8"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="17"/>
       <c r="B160" s="15"/>
       <c r="C160" s="17"/>
-      <c r="D160" s="15"/>
+      <c r="D160" s="18"/>
       <c r="E160" s="15"/>
-      <c r="F160" s="25"/>
+      <c r="F160" s="19"/>
       <c r="G160" s="15"/>
       <c r="H160" s="20"/>
       <c r="I160" s="17"/>
@@ -5622,16 +6253,16 @@
       <c r="W160" s="15"/>
       <c r="X160" s="15"/>
       <c r="Y160" s="15"/>
-      <c r="Z160" s="7"/>
-      <c r="AA160" s="7"/>
-    </row>
-    <row r="161" ht="15.75" customHeight="1">
+      <c r="Z160" s="8"/>
+      <c r="AA160" s="8"/>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="17"/>
       <c r="B161" s="15"/>
       <c r="C161" s="17"/>
-      <c r="D161" s="15"/>
+      <c r="D161" s="18"/>
       <c r="E161" s="15"/>
-      <c r="F161" s="25"/>
+      <c r="F161" s="19"/>
       <c r="G161" s="15"/>
       <c r="H161" s="20"/>
       <c r="I161" s="17"/>
@@ -5651,16 +6282,16 @@
       <c r="W161" s="15"/>
       <c r="X161" s="15"/>
       <c r="Y161" s="15"/>
-      <c r="Z161" s="7"/>
-      <c r="AA161" s="7"/>
-    </row>
-    <row r="162" ht="15.75" customHeight="1">
+      <c r="Z161" s="8"/>
+      <c r="AA161" s="8"/>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="17"/>
       <c r="B162" s="15"/>
       <c r="C162" s="17"/>
-      <c r="D162" s="15"/>
+      <c r="D162" s="18"/>
       <c r="E162" s="15"/>
-      <c r="F162" s="25"/>
+      <c r="F162" s="19"/>
       <c r="G162" s="15"/>
       <c r="H162" s="20"/>
       <c r="I162" s="17"/>
@@ -5680,16 +6311,16 @@
       <c r="W162" s="15"/>
       <c r="X162" s="15"/>
       <c r="Y162" s="15"/>
-      <c r="Z162" s="7"/>
-      <c r="AA162" s="7"/>
-    </row>
-    <row r="163" ht="15.75" customHeight="1">
+      <c r="Z162" s="8"/>
+      <c r="AA162" s="8"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="17"/>
       <c r="B163" s="15"/>
       <c r="C163" s="17"/>
-      <c r="D163" s="15"/>
+      <c r="D163" s="18"/>
       <c r="E163" s="15"/>
-      <c r="F163" s="25"/>
+      <c r="F163" s="19"/>
       <c r="G163" s="15"/>
       <c r="H163" s="20"/>
       <c r="I163" s="17"/>
@@ -5709,16 +6340,16 @@
       <c r="W163" s="15"/>
       <c r="X163" s="15"/>
       <c r="Y163" s="15"/>
-      <c r="Z163" s="7"/>
-      <c r="AA163" s="7"/>
-    </row>
-    <row r="164" ht="15.75" customHeight="1">
+      <c r="Z163" s="8"/>
+      <c r="AA163" s="8"/>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="17"/>
       <c r="B164" s="15"/>
       <c r="C164" s="17"/>
-      <c r="D164" s="15"/>
+      <c r="D164" s="18"/>
       <c r="E164" s="15"/>
-      <c r="F164" s="25"/>
+      <c r="F164" s="19"/>
       <c r="G164" s="15"/>
       <c r="H164" s="20"/>
       <c r="I164" s="17"/>
@@ -5738,16 +6369,16 @@
       <c r="W164" s="15"/>
       <c r="X164" s="15"/>
       <c r="Y164" s="15"/>
-      <c r="Z164" s="7"/>
-      <c r="AA164" s="7"/>
-    </row>
-    <row r="165" ht="15.75" customHeight="1">
+      <c r="Z164" s="8"/>
+      <c r="AA164" s="8"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="17"/>
       <c r="B165" s="15"/>
       <c r="C165" s="17"/>
-      <c r="D165" s="15"/>
+      <c r="D165" s="18"/>
       <c r="E165" s="15"/>
-      <c r="F165" s="25"/>
+      <c r="F165" s="19"/>
       <c r="G165" s="15"/>
       <c r="H165" s="20"/>
       <c r="I165" s="17"/>
@@ -5767,16 +6398,16 @@
       <c r="W165" s="15"/>
       <c r="X165" s="15"/>
       <c r="Y165" s="15"/>
-      <c r="Z165" s="7"/>
-      <c r="AA165" s="7"/>
-    </row>
-    <row r="166" ht="15.75" customHeight="1">
+      <c r="Z165" s="8"/>
+      <c r="AA165" s="8"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="17"/>
       <c r="B166" s="15"/>
       <c r="C166" s="17"/>
-      <c r="D166" s="15"/>
+      <c r="D166" s="18"/>
       <c r="E166" s="15"/>
-      <c r="F166" s="25"/>
+      <c r="F166" s="19"/>
       <c r="G166" s="15"/>
       <c r="H166" s="20"/>
       <c r="I166" s="17"/>
@@ -5796,16 +6427,16 @@
       <c r="W166" s="15"/>
       <c r="X166" s="15"/>
       <c r="Y166" s="15"/>
-      <c r="Z166" s="7"/>
-      <c r="AA166" s="7"/>
-    </row>
-    <row r="167" ht="15.75" customHeight="1">
+      <c r="Z166" s="8"/>
+      <c r="AA166" s="8"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="17"/>
       <c r="B167" s="15"/>
       <c r="C167" s="17"/>
-      <c r="D167" s="15"/>
+      <c r="D167" s="18"/>
       <c r="E167" s="15"/>
-      <c r="F167" s="25"/>
+      <c r="F167" s="19"/>
       <c r="G167" s="15"/>
       <c r="H167" s="20"/>
       <c r="I167" s="17"/>
@@ -5825,16 +6456,16 @@
       <c r="W167" s="15"/>
       <c r="X167" s="15"/>
       <c r="Y167" s="15"/>
-      <c r="Z167" s="7"/>
-      <c r="AA167" s="7"/>
-    </row>
-    <row r="168" ht="15.75" customHeight="1">
+      <c r="Z167" s="8"/>
+      <c r="AA167" s="8"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="17"/>
       <c r="B168" s="15"/>
       <c r="C168" s="17"/>
-      <c r="D168" s="15"/>
+      <c r="D168" s="18"/>
       <c r="E168" s="15"/>
-      <c r="F168" s="25"/>
+      <c r="F168" s="19"/>
       <c r="G168" s="15"/>
       <c r="H168" s="20"/>
       <c r="I168" s="17"/>
@@ -5854,16 +6485,16 @@
       <c r="W168" s="15"/>
       <c r="X168" s="15"/>
       <c r="Y168" s="15"/>
-      <c r="Z168" s="7"/>
-      <c r="AA168" s="7"/>
-    </row>
-    <row r="169" ht="15.75" customHeight="1">
+      <c r="Z168" s="8"/>
+      <c r="AA168" s="8"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="17"/>
       <c r="B169" s="15"/>
       <c r="C169" s="17"/>
-      <c r="D169" s="15"/>
+      <c r="D169" s="18"/>
       <c r="E169" s="15"/>
-      <c r="F169" s="25"/>
+      <c r="F169" s="19"/>
       <c r="G169" s="15"/>
       <c r="H169" s="20"/>
       <c r="I169" s="17"/>
@@ -5883,16 +6514,16 @@
       <c r="W169" s="15"/>
       <c r="X169" s="15"/>
       <c r="Y169" s="15"/>
-      <c r="Z169" s="7"/>
-      <c r="AA169" s="7"/>
-    </row>
-    <row r="170" ht="15.75" customHeight="1">
+      <c r="Z169" s="8"/>
+      <c r="AA169" s="8"/>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="17"/>
       <c r="B170" s="15"/>
       <c r="C170" s="17"/>
-      <c r="D170" s="15"/>
+      <c r="D170" s="18"/>
       <c r="E170" s="15"/>
-      <c r="F170" s="25"/>
+      <c r="F170" s="19"/>
       <c r="G170" s="15"/>
       <c r="H170" s="20"/>
       <c r="I170" s="17"/>
@@ -5912,16 +6543,16 @@
       <c r="W170" s="15"/>
       <c r="X170" s="15"/>
       <c r="Y170" s="15"/>
-      <c r="Z170" s="7"/>
-      <c r="AA170" s="7"/>
-    </row>
-    <row r="171" ht="15.75" customHeight="1">
+      <c r="Z170" s="8"/>
+      <c r="AA170" s="8"/>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="17"/>
       <c r="B171" s="15"/>
       <c r="C171" s="17"/>
-      <c r="D171" s="15"/>
+      <c r="D171" s="18"/>
       <c r="E171" s="15"/>
-      <c r="F171" s="25"/>
+      <c r="F171" s="19"/>
       <c r="G171" s="15"/>
       <c r="H171" s="20"/>
       <c r="I171" s="17"/>
@@ -5941,16 +6572,16 @@
       <c r="W171" s="15"/>
       <c r="X171" s="15"/>
       <c r="Y171" s="15"/>
-      <c r="Z171" s="7"/>
-      <c r="AA171" s="7"/>
-    </row>
-    <row r="172" ht="15.75" customHeight="1">
+      <c r="Z171" s="8"/>
+      <c r="AA171" s="8"/>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="17"/>
       <c r="B172" s="15"/>
       <c r="C172" s="17"/>
-      <c r="D172" s="15"/>
+      <c r="D172" s="18"/>
       <c r="E172" s="15"/>
-      <c r="F172" s="25"/>
+      <c r="F172" s="19"/>
       <c r="G172" s="15"/>
       <c r="H172" s="20"/>
       <c r="I172" s="17"/>
@@ -5970,16 +6601,16 @@
       <c r="W172" s="15"/>
       <c r="X172" s="15"/>
       <c r="Y172" s="15"/>
-      <c r="Z172" s="7"/>
-      <c r="AA172" s="7"/>
-    </row>
-    <row r="173" ht="15.75" customHeight="1">
+      <c r="Z172" s="8"/>
+      <c r="AA172" s="8"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="17"/>
       <c r="B173" s="15"/>
       <c r="C173" s="17"/>
-      <c r="D173" s="15"/>
+      <c r="D173" s="18"/>
       <c r="E173" s="15"/>
-      <c r="F173" s="25"/>
+      <c r="F173" s="19"/>
       <c r="G173" s="15"/>
       <c r="H173" s="20"/>
       <c r="I173" s="17"/>
@@ -5999,16 +6630,16 @@
       <c r="W173" s="15"/>
       <c r="X173" s="15"/>
       <c r="Y173" s="15"/>
-      <c r="Z173" s="7"/>
-      <c r="AA173" s="7"/>
-    </row>
-    <row r="174" ht="15.75" customHeight="1">
+      <c r="Z173" s="8"/>
+      <c r="AA173" s="8"/>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="17"/>
       <c r="B174" s="15"/>
       <c r="C174" s="17"/>
-      <c r="D174" s="15"/>
+      <c r="D174" s="18"/>
       <c r="E174" s="15"/>
-      <c r="F174" s="25"/>
+      <c r="F174" s="19"/>
       <c r="G174" s="15"/>
       <c r="H174" s="20"/>
       <c r="I174" s="17"/>
@@ -6028,16 +6659,16 @@
       <c r="W174" s="15"/>
       <c r="X174" s="15"/>
       <c r="Y174" s="15"/>
-      <c r="Z174" s="7"/>
-      <c r="AA174" s="7"/>
-    </row>
-    <row r="175" ht="15.75" customHeight="1">
+      <c r="Z174" s="8"/>
+      <c r="AA174" s="8"/>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="17"/>
       <c r="B175" s="15"/>
       <c r="C175" s="17"/>
-      <c r="D175" s="15"/>
+      <c r="D175" s="18"/>
       <c r="E175" s="15"/>
-      <c r="F175" s="25"/>
+      <c r="F175" s="19"/>
       <c r="G175" s="15"/>
       <c r="H175" s="20"/>
       <c r="I175" s="17"/>
@@ -6057,16 +6688,16 @@
       <c r="W175" s="15"/>
       <c r="X175" s="15"/>
       <c r="Y175" s="15"/>
-      <c r="Z175" s="7"/>
-      <c r="AA175" s="7"/>
-    </row>
-    <row r="176" ht="15.75" customHeight="1">
+      <c r="Z175" s="8"/>
+      <c r="AA175" s="8"/>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="17"/>
       <c r="B176" s="15"/>
       <c r="C176" s="17"/>
-      <c r="D176" s="15"/>
+      <c r="D176" s="18"/>
       <c r="E176" s="15"/>
-      <c r="F176" s="25"/>
+      <c r="F176" s="19"/>
       <c r="G176" s="15"/>
       <c r="H176" s="20"/>
       <c r="I176" s="17"/>
@@ -6086,16 +6717,16 @@
       <c r="W176" s="15"/>
       <c r="X176" s="15"/>
       <c r="Y176" s="15"/>
-      <c r="Z176" s="7"/>
-      <c r="AA176" s="7"/>
-    </row>
-    <row r="177" ht="15.75" customHeight="1">
+      <c r="Z176" s="8"/>
+      <c r="AA176" s="8"/>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="17"/>
       <c r="B177" s="15"/>
       <c r="C177" s="17"/>
-      <c r="D177" s="15"/>
+      <c r="D177" s="18"/>
       <c r="E177" s="15"/>
-      <c r="F177" s="25"/>
+      <c r="F177" s="19"/>
       <c r="G177" s="15"/>
       <c r="H177" s="20"/>
       <c r="I177" s="17"/>
@@ -6115,16 +6746,16 @@
       <c r="W177" s="15"/>
       <c r="X177" s="15"/>
       <c r="Y177" s="15"/>
-      <c r="Z177" s="7"/>
-      <c r="AA177" s="7"/>
-    </row>
-    <row r="178" ht="15.75" customHeight="1">
+      <c r="Z177" s="8"/>
+      <c r="AA177" s="8"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="17"/>
       <c r="B178" s="15"/>
       <c r="C178" s="17"/>
-      <c r="D178" s="15"/>
+      <c r="D178" s="18"/>
       <c r="E178" s="15"/>
-      <c r="F178" s="25"/>
+      <c r="F178" s="19"/>
       <c r="G178" s="15"/>
       <c r="H178" s="20"/>
       <c r="I178" s="17"/>
@@ -6144,16 +6775,16 @@
       <c r="W178" s="15"/>
       <c r="X178" s="15"/>
       <c r="Y178" s="15"/>
-      <c r="Z178" s="7"/>
-      <c r="AA178" s="7"/>
-    </row>
-    <row r="179" ht="15.75" customHeight="1">
+      <c r="Z178" s="8"/>
+      <c r="AA178" s="8"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="17"/>
       <c r="B179" s="15"/>
       <c r="C179" s="17"/>
-      <c r="D179" s="15"/>
+      <c r="D179" s="18"/>
       <c r="E179" s="15"/>
-      <c r="F179" s="25"/>
+      <c r="F179" s="19"/>
       <c r="G179" s="15"/>
       <c r="H179" s="20"/>
       <c r="I179" s="17"/>
@@ -6173,16 +6804,16 @@
       <c r="W179" s="15"/>
       <c r="X179" s="15"/>
       <c r="Y179" s="15"/>
-      <c r="Z179" s="7"/>
-      <c r="AA179" s="7"/>
-    </row>
-    <row r="180" ht="15.75" customHeight="1">
+      <c r="Z179" s="8"/>
+      <c r="AA179" s="8"/>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="17"/>
       <c r="B180" s="15"/>
       <c r="C180" s="17"/>
-      <c r="D180" s="15"/>
+      <c r="D180" s="18"/>
       <c r="E180" s="15"/>
-      <c r="F180" s="25"/>
+      <c r="F180" s="19"/>
       <c r="G180" s="15"/>
       <c r="H180" s="20"/>
       <c r="I180" s="17"/>
@@ -6202,16 +6833,16 @@
       <c r="W180" s="15"/>
       <c r="X180" s="15"/>
       <c r="Y180" s="15"/>
-      <c r="Z180" s="7"/>
-      <c r="AA180" s="7"/>
-    </row>
-    <row r="181" ht="15.75" customHeight="1">
+      <c r="Z180" s="8"/>
+      <c r="AA180" s="8"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="17"/>
       <c r="B181" s="15"/>
       <c r="C181" s="17"/>
-      <c r="D181" s="15"/>
+      <c r="D181" s="18"/>
       <c r="E181" s="15"/>
-      <c r="F181" s="25"/>
+      <c r="F181" s="19"/>
       <c r="G181" s="15"/>
       <c r="H181" s="20"/>
       <c r="I181" s="17"/>
@@ -6231,16 +6862,16 @@
       <c r="W181" s="15"/>
       <c r="X181" s="15"/>
       <c r="Y181" s="15"/>
-      <c r="Z181" s="7"/>
-      <c r="AA181" s="7"/>
-    </row>
-    <row r="182" ht="15.75" customHeight="1">
+      <c r="Z181" s="8"/>
+      <c r="AA181" s="8"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="17"/>
       <c r="B182" s="15"/>
       <c r="C182" s="17"/>
-      <c r="D182" s="15"/>
+      <c r="D182" s="18"/>
       <c r="E182" s="15"/>
-      <c r="F182" s="25"/>
+      <c r="F182" s="19"/>
       <c r="G182" s="15"/>
       <c r="H182" s="20"/>
       <c r="I182" s="17"/>
@@ -6260,16 +6891,16 @@
       <c r="W182" s="15"/>
       <c r="X182" s="15"/>
       <c r="Y182" s="15"/>
-      <c r="Z182" s="7"/>
-      <c r="AA182" s="7"/>
-    </row>
-    <row r="183" ht="15.75" customHeight="1">
+      <c r="Z182" s="8"/>
+      <c r="AA182" s="8"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="17"/>
       <c r="B183" s="15"/>
       <c r="C183" s="17"/>
-      <c r="D183" s="15"/>
+      <c r="D183" s="18"/>
       <c r="E183" s="15"/>
-      <c r="F183" s="25"/>
+      <c r="F183" s="19"/>
       <c r="G183" s="15"/>
       <c r="H183" s="20"/>
       <c r="I183" s="17"/>
@@ -6289,16 +6920,16 @@
       <c r="W183" s="15"/>
       <c r="X183" s="15"/>
       <c r="Y183" s="15"/>
-      <c r="Z183" s="7"/>
-      <c r="AA183" s="7"/>
-    </row>
-    <row r="184" ht="15.75" customHeight="1">
+      <c r="Z183" s="8"/>
+      <c r="AA183" s="8"/>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="17"/>
       <c r="B184" s="15"/>
       <c r="C184" s="17"/>
-      <c r="D184" s="15"/>
+      <c r="D184" s="18"/>
       <c r="E184" s="15"/>
-      <c r="F184" s="25"/>
+      <c r="F184" s="19"/>
       <c r="G184" s="15"/>
       <c r="H184" s="20"/>
       <c r="I184" s="17"/>
@@ -6318,16 +6949,16 @@
       <c r="W184" s="15"/>
       <c r="X184" s="15"/>
       <c r="Y184" s="15"/>
-      <c r="Z184" s="7"/>
-      <c r="AA184" s="7"/>
-    </row>
-    <row r="185" ht="15.75" customHeight="1">
+      <c r="Z184" s="8"/>
+      <c r="AA184" s="8"/>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="17"/>
       <c r="B185" s="15"/>
       <c r="C185" s="17"/>
-      <c r="D185" s="15"/>
+      <c r="D185" s="18"/>
       <c r="E185" s="15"/>
-      <c r="F185" s="25"/>
+      <c r="F185" s="19"/>
       <c r="G185" s="15"/>
       <c r="H185" s="20"/>
       <c r="I185" s="17"/>
@@ -6347,16 +6978,16 @@
       <c r="W185" s="15"/>
       <c r="X185" s="15"/>
       <c r="Y185" s="15"/>
-      <c r="Z185" s="7"/>
-      <c r="AA185" s="7"/>
-    </row>
-    <row r="186" ht="15.75" customHeight="1">
+      <c r="Z185" s="8"/>
+      <c r="AA185" s="8"/>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="17"/>
       <c r="B186" s="15"/>
       <c r="C186" s="17"/>
-      <c r="D186" s="15"/>
+      <c r="D186" s="18"/>
       <c r="E186" s="15"/>
-      <c r="F186" s="25"/>
+      <c r="F186" s="19"/>
       <c r="G186" s="15"/>
       <c r="H186" s="20"/>
       <c r="I186" s="17"/>
@@ -6376,16 +7007,16 @@
       <c r="W186" s="15"/>
       <c r="X186" s="15"/>
       <c r="Y186" s="15"/>
-      <c r="Z186" s="7"/>
-      <c r="AA186" s="7"/>
-    </row>
-    <row r="187" ht="15.75" customHeight="1">
+      <c r="Z186" s="8"/>
+      <c r="AA186" s="8"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="17"/>
       <c r="B187" s="15"/>
       <c r="C187" s="17"/>
-      <c r="D187" s="15"/>
+      <c r="D187" s="18"/>
       <c r="E187" s="15"/>
-      <c r="F187" s="25"/>
+      <c r="F187" s="19"/>
       <c r="G187" s="15"/>
       <c r="H187" s="20"/>
       <c r="I187" s="17"/>
@@ -6405,16 +7036,16 @@
       <c r="W187" s="15"/>
       <c r="X187" s="15"/>
       <c r="Y187" s="15"/>
-      <c r="Z187" s="7"/>
-      <c r="AA187" s="7"/>
-    </row>
-    <row r="188" ht="15.75" customHeight="1">
+      <c r="Z187" s="8"/>
+      <c r="AA187" s="8"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="17"/>
       <c r="B188" s="15"/>
       <c r="C188" s="17"/>
-      <c r="D188" s="15"/>
+      <c r="D188" s="18"/>
       <c r="E188" s="15"/>
-      <c r="F188" s="25"/>
+      <c r="F188" s="19"/>
       <c r="G188" s="15"/>
       <c r="H188" s="20"/>
       <c r="I188" s="17"/>
@@ -6434,16 +7065,16 @@
       <c r="W188" s="15"/>
       <c r="X188" s="15"/>
       <c r="Y188" s="15"/>
-      <c r="Z188" s="7"/>
-      <c r="AA188" s="7"/>
-    </row>
-    <row r="189" ht="15.75" customHeight="1">
+      <c r="Z188" s="8"/>
+      <c r="AA188" s="8"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="17"/>
       <c r="B189" s="15"/>
       <c r="C189" s="17"/>
-      <c r="D189" s="15"/>
+      <c r="D189" s="18"/>
       <c r="E189" s="15"/>
-      <c r="F189" s="25"/>
+      <c r="F189" s="19"/>
       <c r="G189" s="15"/>
       <c r="H189" s="20"/>
       <c r="I189" s="17"/>
@@ -6463,16 +7094,16 @@
       <c r="W189" s="15"/>
       <c r="X189" s="15"/>
       <c r="Y189" s="15"/>
-      <c r="Z189" s="7"/>
-      <c r="AA189" s="7"/>
-    </row>
-    <row r="190" ht="15.75" customHeight="1">
+      <c r="Z189" s="8"/>
+      <c r="AA189" s="8"/>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="17"/>
       <c r="B190" s="15"/>
       <c r="C190" s="17"/>
-      <c r="D190" s="15"/>
+      <c r="D190" s="18"/>
       <c r="E190" s="15"/>
-      <c r="F190" s="25"/>
+      <c r="F190" s="19"/>
       <c r="G190" s="15"/>
       <c r="H190" s="20"/>
       <c r="I190" s="17"/>
@@ -6492,16 +7123,16 @@
       <c r="W190" s="15"/>
       <c r="X190" s="15"/>
       <c r="Y190" s="15"/>
-      <c r="Z190" s="7"/>
-      <c r="AA190" s="7"/>
-    </row>
-    <row r="191" ht="15.75" customHeight="1">
+      <c r="Z190" s="8"/>
+      <c r="AA190" s="8"/>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="17"/>
       <c r="B191" s="15"/>
       <c r="C191" s="17"/>
-      <c r="D191" s="15"/>
+      <c r="D191" s="18"/>
       <c r="E191" s="15"/>
-      <c r="F191" s="25"/>
+      <c r="F191" s="19"/>
       <c r="G191" s="15"/>
       <c r="H191" s="20"/>
       <c r="I191" s="17"/>
@@ -6521,16 +7152,16 @@
       <c r="W191" s="15"/>
       <c r="X191" s="15"/>
       <c r="Y191" s="15"/>
-      <c r="Z191" s="7"/>
-      <c r="AA191" s="7"/>
-    </row>
-    <row r="192" ht="15.75" customHeight="1">
+      <c r="Z191" s="8"/>
+      <c r="AA191" s="8"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="17"/>
       <c r="B192" s="15"/>
       <c r="C192" s="17"/>
-      <c r="D192" s="15"/>
+      <c r="D192" s="18"/>
       <c r="E192" s="15"/>
-      <c r="F192" s="25"/>
+      <c r="F192" s="19"/>
       <c r="G192" s="15"/>
       <c r="H192" s="20"/>
       <c r="I192" s="17"/>
@@ -6550,16 +7181,16 @@
       <c r="W192" s="15"/>
       <c r="X192" s="15"/>
       <c r="Y192" s="15"/>
-      <c r="Z192" s="7"/>
-      <c r="AA192" s="7"/>
-    </row>
-    <row r="193" ht="15.75" customHeight="1">
+      <c r="Z192" s="8"/>
+      <c r="AA192" s="8"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="17"/>
       <c r="B193" s="15"/>
       <c r="C193" s="17"/>
-      <c r="D193" s="15"/>
+      <c r="D193" s="18"/>
       <c r="E193" s="15"/>
-      <c r="F193" s="25"/>
+      <c r="F193" s="19"/>
       <c r="G193" s="15"/>
       <c r="H193" s="20"/>
       <c r="I193" s="17"/>
@@ -6579,16 +7210,16 @@
       <c r="W193" s="15"/>
       <c r="X193" s="15"/>
       <c r="Y193" s="15"/>
-      <c r="Z193" s="7"/>
-      <c r="AA193" s="7"/>
-    </row>
-    <row r="194" ht="15.75" customHeight="1">
+      <c r="Z193" s="8"/>
+      <c r="AA193" s="8"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="17"/>
       <c r="B194" s="15"/>
       <c r="C194" s="17"/>
-      <c r="D194" s="15"/>
+      <c r="D194" s="18"/>
       <c r="E194" s="15"/>
-      <c r="F194" s="25"/>
+      <c r="F194" s="19"/>
       <c r="G194" s="15"/>
       <c r="H194" s="20"/>
       <c r="I194" s="17"/>
@@ -6608,16 +7239,16 @@
       <c r="W194" s="15"/>
       <c r="X194" s="15"/>
       <c r="Y194" s="15"/>
-      <c r="Z194" s="7"/>
-      <c r="AA194" s="7"/>
-    </row>
-    <row r="195" ht="15.75" customHeight="1">
+      <c r="Z194" s="8"/>
+      <c r="AA194" s="8"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="17"/>
       <c r="B195" s="15"/>
       <c r="C195" s="17"/>
-      <c r="D195" s="15"/>
+      <c r="D195" s="18"/>
       <c r="E195" s="15"/>
-      <c r="F195" s="25"/>
+      <c r="F195" s="19"/>
       <c r="G195" s="15"/>
       <c r="H195" s="20"/>
       <c r="I195" s="17"/>
@@ -6637,16 +7268,16 @@
       <c r="W195" s="15"/>
       <c r="X195" s="15"/>
       <c r="Y195" s="15"/>
-      <c r="Z195" s="7"/>
-      <c r="AA195" s="7"/>
-    </row>
-    <row r="196" ht="15.75" customHeight="1">
+      <c r="Z195" s="8"/>
+      <c r="AA195" s="8"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="17"/>
       <c r="B196" s="15"/>
       <c r="C196" s="17"/>
-      <c r="D196" s="15"/>
+      <c r="D196" s="18"/>
       <c r="E196" s="15"/>
-      <c r="F196" s="25"/>
+      <c r="F196" s="19"/>
       <c r="G196" s="15"/>
       <c r="H196" s="20"/>
       <c r="I196" s="17"/>
@@ -6666,16 +7297,16 @@
       <c r="W196" s="15"/>
       <c r="X196" s="15"/>
       <c r="Y196" s="15"/>
-      <c r="Z196" s="7"/>
-      <c r="AA196" s="7"/>
-    </row>
-    <row r="197" ht="15.75" customHeight="1">
+      <c r="Z196" s="8"/>
+      <c r="AA196" s="8"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="17"/>
       <c r="B197" s="15"/>
       <c r="C197" s="17"/>
-      <c r="D197" s="15"/>
+      <c r="D197" s="18"/>
       <c r="E197" s="15"/>
-      <c r="F197" s="25"/>
+      <c r="F197" s="19"/>
       <c r="G197" s="15"/>
       <c r="H197" s="20"/>
       <c r="I197" s="17"/>
@@ -6695,16 +7326,16 @@
       <c r="W197" s="15"/>
       <c r="X197" s="15"/>
       <c r="Y197" s="15"/>
-      <c r="Z197" s="7"/>
-      <c r="AA197" s="7"/>
-    </row>
-    <row r="198" ht="15.75" customHeight="1">
+      <c r="Z197" s="8"/>
+      <c r="AA197" s="8"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="17"/>
       <c r="B198" s="15"/>
       <c r="C198" s="17"/>
-      <c r="D198" s="15"/>
+      <c r="D198" s="18"/>
       <c r="E198" s="15"/>
-      <c r="F198" s="25"/>
+      <c r="F198" s="19"/>
       <c r="G198" s="15"/>
       <c r="H198" s="20"/>
       <c r="I198" s="17"/>
@@ -6724,16 +7355,16 @@
       <c r="W198" s="15"/>
       <c r="X198" s="15"/>
       <c r="Y198" s="15"/>
-      <c r="Z198" s="7"/>
-      <c r="AA198" s="7"/>
-    </row>
-    <row r="199" ht="15.75" customHeight="1">
+      <c r="Z198" s="8"/>
+      <c r="AA198" s="8"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="17"/>
       <c r="B199" s="15"/>
       <c r="C199" s="17"/>
-      <c r="D199" s="15"/>
+      <c r="D199" s="18"/>
       <c r="E199" s="15"/>
-      <c r="F199" s="25"/>
+      <c r="F199" s="19"/>
       <c r="G199" s="15"/>
       <c r="H199" s="20"/>
       <c r="I199" s="17"/>
@@ -6753,16 +7384,16 @@
       <c r="W199" s="15"/>
       <c r="X199" s="15"/>
       <c r="Y199" s="15"/>
-      <c r="Z199" s="7"/>
-      <c r="AA199" s="7"/>
-    </row>
-    <row r="200" ht="15.75" customHeight="1">
+      <c r="Z199" s="8"/>
+      <c r="AA199" s="8"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="17"/>
       <c r="B200" s="15"/>
       <c r="C200" s="17"/>
-      <c r="D200" s="15"/>
+      <c r="D200" s="18"/>
       <c r="E200" s="15"/>
-      <c r="F200" s="25"/>
+      <c r="F200" s="19"/>
       <c r="G200" s="15"/>
       <c r="H200" s="20"/>
       <c r="I200" s="17"/>
@@ -6782,16 +7413,16 @@
       <c r="W200" s="15"/>
       <c r="X200" s="15"/>
       <c r="Y200" s="15"/>
-      <c r="Z200" s="7"/>
-      <c r="AA200" s="7"/>
-    </row>
-    <row r="201" ht="15.75" customHeight="1">
+      <c r="Z200" s="8"/>
+      <c r="AA200" s="8"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="17"/>
       <c r="B201" s="15"/>
       <c r="C201" s="17"/>
-      <c r="D201" s="15"/>
+      <c r="D201" s="18"/>
       <c r="E201" s="15"/>
-      <c r="F201" s="25"/>
+      <c r="F201" s="19"/>
       <c r="G201" s="15"/>
       <c r="H201" s="20"/>
       <c r="I201" s="17"/>
@@ -6811,16 +7442,16 @@
       <c r="W201" s="15"/>
       <c r="X201" s="15"/>
       <c r="Y201" s="15"/>
-      <c r="Z201" s="7"/>
-      <c r="AA201" s="7"/>
-    </row>
-    <row r="202" ht="15.75" customHeight="1">
+      <c r="Z201" s="8"/>
+      <c r="AA201" s="8"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="17"/>
       <c r="B202" s="15"/>
       <c r="C202" s="17"/>
-      <c r="D202" s="15"/>
+      <c r="D202" s="18"/>
       <c r="E202" s="15"/>
-      <c r="F202" s="25"/>
+      <c r="F202" s="19"/>
       <c r="G202" s="15"/>
       <c r="H202" s="20"/>
       <c r="I202" s="17"/>
@@ -6840,16 +7471,16 @@
       <c r="W202" s="15"/>
       <c r="X202" s="15"/>
       <c r="Y202" s="15"/>
-      <c r="Z202" s="7"/>
-      <c r="AA202" s="7"/>
-    </row>
-    <row r="203" ht="15.75" customHeight="1">
+      <c r="Z202" s="8"/>
+      <c r="AA202" s="8"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="17"/>
       <c r="B203" s="15"/>
       <c r="C203" s="17"/>
-      <c r="D203" s="15"/>
+      <c r="D203" s="18"/>
       <c r="E203" s="15"/>
-      <c r="F203" s="25"/>
+      <c r="F203" s="19"/>
       <c r="G203" s="15"/>
       <c r="H203" s="20"/>
       <c r="I203" s="17"/>
@@ -6869,16 +7500,16 @@
       <c r="W203" s="15"/>
       <c r="X203" s="15"/>
       <c r="Y203" s="15"/>
-      <c r="Z203" s="7"/>
-      <c r="AA203" s="7"/>
-    </row>
-    <row r="204" ht="15.75" customHeight="1">
+      <c r="Z203" s="8"/>
+      <c r="AA203" s="8"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="17"/>
       <c r="B204" s="15"/>
       <c r="C204" s="17"/>
-      <c r="D204" s="15"/>
+      <c r="D204" s="18"/>
       <c r="E204" s="15"/>
-      <c r="F204" s="25"/>
+      <c r="F204" s="19"/>
       <c r="G204" s="15"/>
       <c r="H204" s="20"/>
       <c r="I204" s="17"/>
@@ -6898,16 +7529,16 @@
       <c r="W204" s="15"/>
       <c r="X204" s="15"/>
       <c r="Y204" s="15"/>
-      <c r="Z204" s="7"/>
-      <c r="AA204" s="7"/>
-    </row>
-    <row r="205" ht="15.75" customHeight="1">
+      <c r="Z204" s="8"/>
+      <c r="AA204" s="8"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="17"/>
       <c r="B205" s="15"/>
       <c r="C205" s="17"/>
-      <c r="D205" s="15"/>
+      <c r="D205" s="18"/>
       <c r="E205" s="15"/>
-      <c r="F205" s="25"/>
+      <c r="F205" s="19"/>
       <c r="G205" s="15"/>
       <c r="H205" s="20"/>
       <c r="I205" s="17"/>
@@ -6927,16 +7558,16 @@
       <c r="W205" s="15"/>
       <c r="X205" s="15"/>
       <c r="Y205" s="15"/>
-      <c r="Z205" s="7"/>
-      <c r="AA205" s="7"/>
-    </row>
-    <row r="206" ht="15.75" customHeight="1">
+      <c r="Z205" s="8"/>
+      <c r="AA205" s="8"/>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="17"/>
       <c r="B206" s="15"/>
       <c r="C206" s="17"/>
-      <c r="D206" s="15"/>
+      <c r="D206" s="18"/>
       <c r="E206" s="15"/>
-      <c r="F206" s="25"/>
+      <c r="F206" s="19"/>
       <c r="G206" s="15"/>
       <c r="H206" s="20"/>
       <c r="I206" s="17"/>
@@ -6956,16 +7587,16 @@
       <c r="W206" s="15"/>
       <c r="X206" s="15"/>
       <c r="Y206" s="15"/>
-      <c r="Z206" s="7"/>
-      <c r="AA206" s="7"/>
-    </row>
-    <row r="207" ht="15.75" customHeight="1">
+      <c r="Z206" s="8"/>
+      <c r="AA206" s="8"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="17"/>
       <c r="B207" s="15"/>
       <c r="C207" s="17"/>
-      <c r="D207" s="15"/>
+      <c r="D207" s="18"/>
       <c r="E207" s="15"/>
-      <c r="F207" s="25"/>
+      <c r="F207" s="19"/>
       <c r="G207" s="15"/>
       <c r="H207" s="20"/>
       <c r="I207" s="17"/>
@@ -6985,16 +7616,16 @@
       <c r="W207" s="15"/>
       <c r="X207" s="15"/>
       <c r="Y207" s="15"/>
-      <c r="Z207" s="7"/>
-      <c r="AA207" s="7"/>
-    </row>
-    <row r="208" ht="15.75" customHeight="1">
+      <c r="Z207" s="8"/>
+      <c r="AA207" s="8"/>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="17"/>
       <c r="B208" s="15"/>
       <c r="C208" s="17"/>
-      <c r="D208" s="15"/>
+      <c r="D208" s="18"/>
       <c r="E208" s="15"/>
-      <c r="F208" s="25"/>
+      <c r="F208" s="19"/>
       <c r="G208" s="15"/>
       <c r="H208" s="20"/>
       <c r="I208" s="17"/>
@@ -7014,16 +7645,16 @@
       <c r="W208" s="15"/>
       <c r="X208" s="15"/>
       <c r="Y208" s="15"/>
-      <c r="Z208" s="7"/>
-      <c r="AA208" s="7"/>
-    </row>
-    <row r="209" ht="15.75" customHeight="1">
+      <c r="Z208" s="8"/>
+      <c r="AA208" s="8"/>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="17"/>
       <c r="B209" s="15"/>
       <c r="C209" s="17"/>
-      <c r="D209" s="15"/>
+      <c r="D209" s="18"/>
       <c r="E209" s="15"/>
-      <c r="F209" s="25"/>
+      <c r="F209" s="19"/>
       <c r="G209" s="15"/>
       <c r="H209" s="20"/>
       <c r="I209" s="17"/>
@@ -7043,16 +7674,16 @@
       <c r="W209" s="15"/>
       <c r="X209" s="15"/>
       <c r="Y209" s="15"/>
-      <c r="Z209" s="7"/>
-      <c r="AA209" s="7"/>
-    </row>
-    <row r="210" ht="15.75" customHeight="1">
+      <c r="Z209" s="8"/>
+      <c r="AA209" s="8"/>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="17"/>
       <c r="B210" s="15"/>
       <c r="C210" s="17"/>
-      <c r="D210" s="15"/>
+      <c r="D210" s="18"/>
       <c r="E210" s="15"/>
-      <c r="F210" s="25"/>
+      <c r="F210" s="19"/>
       <c r="G210" s="15"/>
       <c r="H210" s="20"/>
       <c r="I210" s="17"/>
@@ -7072,16 +7703,16 @@
       <c r="W210" s="15"/>
       <c r="X210" s="15"/>
       <c r="Y210" s="15"/>
-      <c r="Z210" s="7"/>
-      <c r="AA210" s="7"/>
-    </row>
-    <row r="211" ht="15.75" customHeight="1">
+      <c r="Z210" s="8"/>
+      <c r="AA210" s="8"/>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="17"/>
       <c r="B211" s="15"/>
       <c r="C211" s="17"/>
-      <c r="D211" s="15"/>
+      <c r="D211" s="18"/>
       <c r="E211" s="15"/>
-      <c r="F211" s="25"/>
+      <c r="F211" s="19"/>
       <c r="G211" s="15"/>
       <c r="H211" s="20"/>
       <c r="I211" s="17"/>
@@ -7101,16 +7732,16 @@
       <c r="W211" s="15"/>
       <c r="X211" s="15"/>
       <c r="Y211" s="15"/>
-      <c r="Z211" s="7"/>
-      <c r="AA211" s="7"/>
-    </row>
-    <row r="212" ht="15.75" customHeight="1">
+      <c r="Z211" s="8"/>
+      <c r="AA211" s="8"/>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="17"/>
       <c r="B212" s="15"/>
       <c r="C212" s="17"/>
-      <c r="D212" s="15"/>
+      <c r="D212" s="18"/>
       <c r="E212" s="15"/>
-      <c r="F212" s="25"/>
+      <c r="F212" s="19"/>
       <c r="G212" s="15"/>
       <c r="H212" s="20"/>
       <c r="I212" s="17"/>
@@ -7130,16 +7761,16 @@
       <c r="W212" s="15"/>
       <c r="X212" s="15"/>
       <c r="Y212" s="15"/>
-      <c r="Z212" s="7"/>
-      <c r="AA212" s="7"/>
-    </row>
-    <row r="213" ht="15.75" customHeight="1">
+      <c r="Z212" s="8"/>
+      <c r="AA212" s="8"/>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="17"/>
       <c r="B213" s="15"/>
       <c r="C213" s="17"/>
-      <c r="D213" s="15"/>
+      <c r="D213" s="18"/>
       <c r="E213" s="15"/>
-      <c r="F213" s="25"/>
+      <c r="F213" s="19"/>
       <c r="G213" s="15"/>
       <c r="H213" s="20"/>
       <c r="I213" s="17"/>
@@ -7159,16 +7790,16 @@
       <c r="W213" s="15"/>
       <c r="X213" s="15"/>
       <c r="Y213" s="15"/>
-      <c r="Z213" s="7"/>
-      <c r="AA213" s="7"/>
-    </row>
-    <row r="214" ht="15.75" customHeight="1">
+      <c r="Z213" s="8"/>
+      <c r="AA213" s="8"/>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="17"/>
       <c r="B214" s="15"/>
       <c r="C214" s="17"/>
-      <c r="D214" s="15"/>
+      <c r="D214" s="18"/>
       <c r="E214" s="15"/>
-      <c r="F214" s="25"/>
+      <c r="F214" s="19"/>
       <c r="G214" s="15"/>
       <c r="H214" s="20"/>
       <c r="I214" s="17"/>
@@ -7188,16 +7819,16 @@
       <c r="W214" s="15"/>
       <c r="X214" s="15"/>
       <c r="Y214" s="15"/>
-      <c r="Z214" s="7"/>
-      <c r="AA214" s="7"/>
-    </row>
-    <row r="215" ht="15.75" customHeight="1">
+      <c r="Z214" s="8"/>
+      <c r="AA214" s="8"/>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="17"/>
       <c r="B215" s="15"/>
       <c r="C215" s="17"/>
-      <c r="D215" s="15"/>
+      <c r="D215" s="18"/>
       <c r="E215" s="15"/>
-      <c r="F215" s="25"/>
+      <c r="F215" s="19"/>
       <c r="G215" s="15"/>
       <c r="H215" s="20"/>
       <c r="I215" s="17"/>
@@ -7217,18 +7848,16 @@
       <c r="W215" s="15"/>
       <c r="X215" s="15"/>
       <c r="Y215" s="15"/>
-      <c r="Z215" s="7"/>
-      <c r="AA215" s="7"/>
-    </row>
-    <row r="216" ht="15.75" customHeight="1">
+      <c r="Z215" s="8"/>
+      <c r="AA215" s="8"/>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="17"/>
       <c r="B216" s="15"/>
       <c r="C216" s="17"/>
-      <c r="D216" s="15"/>
+      <c r="D216" s="18"/>
       <c r="E216" s="15"/>
-      <c r="F216" s="25"/>
-      <c r="G216" s="15"/>
-      <c r="H216" s="20"/>
+      <c r="F216" s="19"/>
       <c r="I216" s="17"/>
       <c r="J216" s="15"/>
       <c r="K216" s="15"/>
@@ -7246,18 +7875,16 @@
       <c r="W216" s="15"/>
       <c r="X216" s="15"/>
       <c r="Y216" s="15"/>
-      <c r="Z216" s="7"/>
-      <c r="AA216" s="7"/>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
+      <c r="Z216" s="8"/>
+      <c r="AA216" s="8"/>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="17"/>
       <c r="B217" s="15"/>
       <c r="C217" s="17"/>
-      <c r="D217" s="15"/>
+      <c r="D217" s="18"/>
       <c r="E217" s="15"/>
-      <c r="F217" s="25"/>
-      <c r="G217" s="15"/>
-      <c r="H217" s="20"/>
+      <c r="F217" s="19"/>
       <c r="I217" s="17"/>
       <c r="J217" s="15"/>
       <c r="K217" s="15"/>
@@ -7275,18 +7902,16 @@
       <c r="W217" s="15"/>
       <c r="X217" s="15"/>
       <c r="Y217" s="15"/>
-      <c r="Z217" s="7"/>
-      <c r="AA217" s="7"/>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
+      <c r="Z217" s="8"/>
+      <c r="AA217" s="8"/>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="17"/>
       <c r="B218" s="15"/>
       <c r="C218" s="17"/>
-      <c r="D218" s="15"/>
+      <c r="D218" s="18"/>
       <c r="E218" s="15"/>
-      <c r="F218" s="25"/>
-      <c r="G218" s="15"/>
-      <c r="H218" s="20"/>
+      <c r="F218" s="19"/>
       <c r="I218" s="17"/>
       <c r="J218" s="15"/>
       <c r="K218" s="15"/>
@@ -7304,18 +7929,16 @@
       <c r="W218" s="15"/>
       <c r="X218" s="15"/>
       <c r="Y218" s="15"/>
-      <c r="Z218" s="7"/>
-      <c r="AA218" s="7"/>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
+      <c r="Z218" s="8"/>
+      <c r="AA218" s="8"/>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="17"/>
       <c r="B219" s="15"/>
       <c r="C219" s="17"/>
-      <c r="D219" s="15"/>
+      <c r="D219" s="18"/>
       <c r="E219" s="15"/>
-      <c r="F219" s="25"/>
-      <c r="G219" s="15"/>
-      <c r="H219" s="20"/>
+      <c r="F219" s="19"/>
       <c r="I219" s="17"/>
       <c r="J219" s="15"/>
       <c r="K219" s="15"/>
@@ -7333,18 +7956,14 @@
       <c r="W219" s="15"/>
       <c r="X219" s="15"/>
       <c r="Y219" s="15"/>
-      <c r="Z219" s="7"/>
-      <c r="AA219" s="7"/>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="17"/>
-      <c r="B220" s="15"/>
+      <c r="Z219" s="8"/>
+      <c r="AA219" s="8"/>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C220" s="17"/>
-      <c r="D220" s="15"/>
+      <c r="D220" s="18"/>
       <c r="E220" s="15"/>
-      <c r="F220" s="25"/>
-      <c r="G220" s="15"/>
-      <c r="H220" s="20"/>
+      <c r="F220" s="19"/>
       <c r="I220" s="17"/>
       <c r="J220" s="15"/>
       <c r="K220" s="15"/>
@@ -7362,18 +7981,14 @@
       <c r="W220" s="15"/>
       <c r="X220" s="15"/>
       <c r="Y220" s="15"/>
-      <c r="Z220" s="7"/>
-      <c r="AA220" s="7"/>
-    </row>
-    <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="17"/>
-      <c r="B221" s="15"/>
+      <c r="Z220" s="8"/>
+      <c r="AA220" s="8"/>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C221" s="17"/>
-      <c r="D221" s="15"/>
+      <c r="D221" s="18"/>
       <c r="E221" s="15"/>
-      <c r="F221" s="25"/>
-      <c r="G221" s="15"/>
-      <c r="H221" s="20"/>
+      <c r="F221" s="19"/>
       <c r="I221" s="17"/>
       <c r="J221" s="15"/>
       <c r="K221" s="15"/>
@@ -7391,792 +8006,25 @@
       <c r="W221" s="15"/>
       <c r="X221" s="15"/>
       <c r="Y221" s="15"/>
-      <c r="Z221" s="7"/>
-      <c r="AA221" s="7"/>
-    </row>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+      <c r="Z221" s="8"/>
+      <c r="AA221" s="8"/>
+    </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <mergeCells count="7">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="D76:E76"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>